--- a/BackTest/2019-11-01 BackTest FX.xlsx
+++ b/BackTest/2019-11-01 BackTest FX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>6</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L12" t="n">
         <v>125</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>6</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>20</v>
+      </c>
       <c r="L13" t="n">
         <v>125.2</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>6</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
       <c r="L14" t="n">
         <v>125.3</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>6</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>20</v>
+      </c>
       <c r="L15" t="n">
         <v>125.4</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>6</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>20</v>
+      </c>
       <c r="L16" t="n">
         <v>125.5</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>7</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>125.7</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>8</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L18" t="n">
         <v>126</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>9</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L19" t="n">
         <v>126.4</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>9</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>100</v>
+      </c>
       <c r="L20" t="n">
         <v>126.7</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>10</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>50</v>
+      </c>
       <c r="L21" t="n">
         <v>127.1</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>10</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>50</v>
+      </c>
       <c r="L22" t="n">
         <v>127.3</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>15</v>
       </c>
       <c r="K23" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>127</v>
@@ -1466,7 +1488,7 @@
         <v>18</v>
       </c>
       <c r="K24" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>127</v>
@@ -1515,7 +1537,7 @@
         <v>21</v>
       </c>
       <c r="K25" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="L25" t="n">
         <v>126.7</v>
@@ -1564,7 +1586,7 @@
         <v>24</v>
       </c>
       <c r="K26" t="n">
-        <v>4.347826086956522</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L26" t="n">
         <v>126.7</v>
@@ -1613,7 +1635,7 @@
         <v>24</v>
       </c>
       <c r="K27" t="n">
-        <v>4.347826086956522</v>
+        <v>-12.5</v>
       </c>
       <c r="L27" t="n">
         <v>126.6</v>
@@ -1662,7 +1684,7 @@
         <v>25</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L28" t="n">
         <v>126.3</v>
@@ -1711,7 +1733,7 @@
         <v>26</v>
       </c>
       <c r="K29" t="n">
-        <v>-4</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L29" t="n">
         <v>125.8</v>
@@ -1760,7 +1782,7 @@
         <v>28</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L30" t="n">
         <v>125.5</v>
@@ -1809,7 +1831,7 @@
         <v>30</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L31" t="n">
         <v>125.1</v>
@@ -1860,7 +1882,7 @@
         <v>32</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L32" t="n">
         <v>124.9</v>
@@ -1911,7 +1933,7 @@
         <v>35</v>
       </c>
       <c r="K33" t="n">
-        <v>-10.3448275862069</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L33" t="n">
         <v>124.9</v>
@@ -1962,7 +1984,7 @@
         <v>38</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L34" t="n">
         <v>124.9</v>
@@ -2115,7 +2137,7 @@
         <v>38</v>
       </c>
       <c r="K37" t="n">
-        <v>-3.225806451612903</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L37" t="n">
         <v>125.2</v>
@@ -2166,7 +2188,7 @@
         <v>38</v>
       </c>
       <c r="K38" t="n">
-        <v>-6.666666666666667</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L38" t="n">
         <v>125.3</v>
@@ -2217,7 +2239,7 @@
         <v>39</v>
       </c>
       <c r="K39" t="n">
-        <v>-6.666666666666667</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L39" t="n">
         <v>125.6</v>
@@ -2268,7 +2290,7 @@
         <v>39</v>
       </c>
       <c r="K40" t="n">
-        <v>-6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>125.7</v>
@@ -2319,7 +2341,7 @@
         <v>39</v>
       </c>
       <c r="K41" t="n">
-        <v>-3.448275862068965</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L41" t="n">
         <v>126</v>
@@ -2370,7 +2392,7 @@
         <v>39</v>
       </c>
       <c r="K42" t="n">
-        <v>-3.448275862068965</v>
+        <v>100</v>
       </c>
       <c r="L42" t="n">
         <v>126.1</v>
@@ -2421,7 +2443,7 @@
         <v>39</v>
       </c>
       <c r="K43" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L43" t="n">
         <v>126.5</v>
@@ -2472,7 +2494,7 @@
         <v>39</v>
       </c>
       <c r="K44" t="n">
-        <v>4.761904761904762</v>
+        <v>100</v>
       </c>
       <c r="L44" t="n">
         <v>126.6</v>
@@ -2523,7 +2545,7 @@
         <v>39</v>
       </c>
       <c r="K45" t="n">
-        <v>22.22222222222222</v>
+        <v>100</v>
       </c>
       <c r="L45" t="n">
         <v>126.7</v>
@@ -2574,7 +2596,7 @@
         <v>39</v>
       </c>
       <c r="K46" t="n">
-        <v>6.666666666666667</v>
+        <v>100</v>
       </c>
       <c r="L46" t="n">
         <v>126.8</v>
@@ -2625,7 +2647,7 @@
         <v>39</v>
       </c>
       <c r="K47" t="n">
-        <v>6.666666666666667</v>
+        <v>100</v>
       </c>
       <c r="L47" t="n">
         <v>126.9</v>
@@ -2676,7 +2698,7 @@
         <v>40</v>
       </c>
       <c r="K48" t="n">
-        <v>6.666666666666667</v>
+        <v>-100</v>
       </c>
       <c r="L48" t="n">
         <v>126.9</v>
@@ -2727,7 +2749,7 @@
         <v>40</v>
       </c>
       <c r="K49" t="n">
-        <v>14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L49" t="n">
         <v>126.8</v>
@@ -2778,7 +2800,7 @@
         <v>40</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L50" t="n">
         <v>126.7</v>
@@ -2829,7 +2851,7 @@
         <v>41</v>
       </c>
       <c r="K51" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>126.7</v>
@@ -2880,7 +2902,7 @@
         <v>42</v>
       </c>
       <c r="K52" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L52" t="n">
         <v>126.8</v>
@@ -2931,7 +2953,7 @@
         <v>43</v>
       </c>
       <c r="K53" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L53" t="n">
         <v>127</v>
@@ -2982,7 +3004,7 @@
         <v>43</v>
       </c>
       <c r="K54" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L54" t="n">
         <v>127.2</v>
@@ -3033,7 +3055,7 @@
         <v>43</v>
       </c>
       <c r="K55" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L55" t="n">
         <v>127.4</v>
@@ -3084,7 +3106,7 @@
         <v>43</v>
       </c>
       <c r="K56" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L56" t="n">
         <v>127.6</v>
@@ -3135,7 +3157,7 @@
         <v>43</v>
       </c>
       <c r="K57" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L57" t="n">
         <v>127.8</v>
@@ -3186,7 +3208,7 @@
         <v>43</v>
       </c>
       <c r="K58" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L58" t="n">
         <v>128.1</v>
@@ -3237,7 +3259,7 @@
         <v>44</v>
       </c>
       <c r="K59" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L59" t="n">
         <v>128.5</v>
@@ -3288,7 +3310,7 @@
         <v>46</v>
       </c>
       <c r="K60" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L60" t="n">
         <v>128.7</v>
@@ -3339,7 +3361,7 @@
         <v>47</v>
       </c>
       <c r="K61" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L61" t="n">
         <v>128.9</v>
@@ -3390,7 +3412,7 @@
         <v>47</v>
       </c>
       <c r="K62" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>129</v>
@@ -3441,7 +3463,7 @@
         <v>47</v>
       </c>
       <c r="K63" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>129</v>
@@ -3492,7 +3514,7 @@
         <v>49</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L64" t="n">
         <v>128.8</v>
@@ -3543,7 +3565,7 @@
         <v>49</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L65" t="n">
         <v>128.6</v>
@@ -3594,7 +3616,7 @@
         <v>50</v>
       </c>
       <c r="K66" t="n">
-        <v>-9.090909090909092</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L66" t="n">
         <v>128.3</v>
@@ -3645,7 +3667,7 @@
         <v>52</v>
       </c>
       <c r="K67" t="n">
-        <v>7.692307692307693</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L67" t="n">
         <v>128.2</v>
@@ -3696,7 +3718,7 @@
         <v>53</v>
       </c>
       <c r="K68" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L68" t="n">
         <v>128</v>
@@ -3747,7 +3769,7 @@
         <v>54</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L69" t="n">
         <v>127.6</v>
@@ -3798,7 +3820,7 @@
         <v>54</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L70" t="n">
         <v>127.4</v>
@@ -3849,7 +3871,7 @@
         <v>55</v>
       </c>
       <c r="K71" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L71" t="n">
         <v>127</v>
@@ -3900,7 +3922,7 @@
         <v>55</v>
       </c>
       <c r="K72" t="n">
-        <v>-23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L72" t="n">
         <v>126.6</v>
@@ -3951,7 +3973,7 @@
         <v>58</v>
       </c>
       <c r="K73" t="n">
-        <v>-6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L73" t="n">
         <v>126.5</v>
@@ -4002,7 +4024,7 @@
         <v>58</v>
       </c>
       <c r="K74" t="n">
-        <v>-6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L74" t="n">
         <v>126.6</v>
@@ -4053,7 +4075,7 @@
         <v>58</v>
       </c>
       <c r="K75" t="n">
-        <v>-6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L75" t="n">
         <v>126.7</v>
@@ -4104,7 +4126,7 @@
         <v>59</v>
       </c>
       <c r="K76" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L76" t="n">
         <v>126.8</v>
@@ -4155,7 +4177,7 @@
         <v>59</v>
       </c>
       <c r="K77" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>126.7</v>
@@ -4206,7 +4228,7 @@
         <v>61</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L78" t="n">
         <v>126.9</v>
@@ -4257,7 +4279,7 @@
         <v>61</v>
       </c>
       <c r="K79" t="n">
-        <v>-5.88235294117647</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L79" t="n">
         <v>127.2</v>
@@ -4308,7 +4330,7 @@
         <v>61</v>
       </c>
       <c r="K80" t="n">
-        <v>6.666666666666667</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L80" t="n">
         <v>127.5</v>
@@ -4359,7 +4381,7 @@
         <v>61</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L81" t="n">
         <v>127.9</v>
@@ -4410,7 +4432,7 @@
         <v>61</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>128.3</v>
@@ -4461,7 +4483,7 @@
         <v>62</v>
       </c>
       <c r="K83" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>128.3</v>
@@ -4512,7 +4534,7 @@
         <v>63</v>
       </c>
       <c r="K84" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L84" t="n">
         <v>128.4</v>
@@ -4614,7 +4636,7 @@
         <v>67</v>
       </c>
       <c r="K86" t="n">
-        <v>17.64705882352941</v>
+        <v>25</v>
       </c>
       <c r="L86" t="n">
         <v>128.5</v>
@@ -4665,7 +4687,7 @@
         <v>68</v>
       </c>
       <c r="K87" t="n">
-        <v>12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L87" t="n">
         <v>128.8</v>
@@ -4716,7 +4738,7 @@
         <v>68</v>
       </c>
       <c r="K88" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L88" t="n">
         <v>128.9</v>
@@ -4767,7 +4789,7 @@
         <v>68</v>
       </c>
       <c r="K89" t="n">
-        <v>28.57142857142857</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L89" t="n">
         <v>129</v>
@@ -4818,7 +4840,7 @@
         <v>69</v>
       </c>
       <c r="K90" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L90" t="n">
         <v>129.2</v>
@@ -4869,7 +4891,7 @@
         <v>69</v>
       </c>
       <c r="K91" t="n">
-        <v>42.85714285714285</v>
+        <v>25</v>
       </c>
       <c r="L91" t="n">
         <v>129.4</v>
@@ -4971,7 +4993,7 @@
         <v>70</v>
       </c>
       <c r="K93" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L93" t="n">
         <v>129.8</v>
@@ -5022,7 +5044,7 @@
         <v>70</v>
       </c>
       <c r="K94" t="n">
-        <v>16.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L94" t="n">
         <v>129.9</v>
@@ -5077,7 +5099,7 @@
         <v>70</v>
       </c>
       <c r="K95" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L95" t="n">
         <v>130.2</v>
@@ -5136,7 +5158,7 @@
         <v>70</v>
       </c>
       <c r="K96" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>130.3</v>
@@ -5254,7 +5276,7 @@
         <v>71</v>
       </c>
       <c r="K98" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>130.5</v>
@@ -5313,7 +5335,7 @@
         <v>71</v>
       </c>
       <c r="K99" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>130.6</v>
@@ -5372,7 +5394,7 @@
         <v>71</v>
       </c>
       <c r="K100" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>130.6</v>
@@ -5431,7 +5453,7 @@
         <v>72</v>
       </c>
       <c r="K101" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>130.7</v>
@@ -5490,7 +5512,7 @@
         <v>72</v>
       </c>
       <c r="K102" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L102" t="n">
         <v>130.8</v>
@@ -5549,7 +5571,7 @@
         <v>72</v>
       </c>
       <c r="K103" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L103" t="n">
         <v>131</v>

--- a/BackTest/2019-11-01 BackTest FX.xlsx
+++ b/BackTest/2019-11-01 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S103"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,65 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -463,37 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E2" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>493.347</v>
       </c>
       <c r="G2" t="n">
-        <v>123.5166666666667</v>
+        <v>-99047.3009079365</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -502,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F3" t="n">
-        <v>78</v>
+        <v>7268.0225</v>
       </c>
       <c r="G3" t="n">
-        <v>123.5166666666667</v>
+        <v>-99047.3009079365</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -545,41 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C4" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D4" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E4" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F4" t="n">
-        <v>300</v>
+        <v>18493.5915</v>
       </c>
       <c r="G4" t="n">
-        <v>123.55</v>
+        <v>-117540.8924079365</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,41 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C5" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E5" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F5" t="n">
-        <v>1060.776</v>
+        <v>501.9823</v>
       </c>
       <c r="G5" t="n">
-        <v>123.55</v>
+        <v>-117540.8924079365</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,41 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C6" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D6" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E6" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F6" t="n">
-        <v>16730.4231</v>
+        <v>1309.7527</v>
       </c>
       <c r="G6" t="n">
-        <v>123.55</v>
+        <v>-117540.8924079365</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,41 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C7" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D7" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E7" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F7" t="n">
-        <v>6402.4089</v>
+        <v>18188.265</v>
       </c>
       <c r="G7" t="n">
-        <v>123.5666666666667</v>
+        <v>-117540.8924079365</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -717,41 +643,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C8" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D8" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E8" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F8" t="n">
-        <v>14905.763</v>
+        <v>5383.3021</v>
       </c>
       <c r="G8" t="n">
-        <v>123.5666666666667</v>
+        <v>-122924.1945079365</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>121</v>
+      </c>
+      <c r="K8" t="n">
+        <v>121</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,41 +682,41 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C9" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D9" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E9" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F9" t="n">
-        <v>66</v>
+        <v>10488.6065</v>
       </c>
       <c r="G9" t="n">
-        <v>123.5833333333333</v>
+        <v>-112435.5880079365</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+        <v>120</v>
+      </c>
+      <c r="K9" t="n">
+        <v>121</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -803,41 +725,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C10" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D10" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E10" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F10" t="n">
-        <v>5054.5555</v>
+        <v>202.3012</v>
       </c>
       <c r="G10" t="n">
-        <v>123.6</v>
+        <v>-112435.5880079365</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>122</v>
+      </c>
+      <c r="K10" t="n">
+        <v>121</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,43 +768,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C11" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D11" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E11" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F11" t="n">
-        <v>12341.1191</v>
+        <v>132.7293</v>
       </c>
       <c r="G11" t="n">
-        <v>123.5833333333333</v>
+        <v>-112568.3173079365</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>124.8</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>122</v>
+      </c>
+      <c r="K11" t="n">
+        <v>122</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -891,45 +807,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C12" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D12" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E12" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F12" t="n">
-        <v>421.0317</v>
+        <v>11341.1362</v>
       </c>
       <c r="G12" t="n">
-        <v>123.6</v>
+        <v>-101227.1811079365</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L12" t="n">
-        <v>125</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>122</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,45 +848,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" t="n">
-        <v>1251.5225</v>
+        <v>13727.5236</v>
       </c>
       <c r="G13" t="n">
-        <v>123.6166666666667</v>
+        <v>-87499.65750793651</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>20</v>
-      </c>
-      <c r="L13" t="n">
-        <v>125.2</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>122</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -985,45 +889,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>132.7293</v>
       </c>
       <c r="G14" t="n">
-        <v>123.6333333333333</v>
+        <v>-87499.65750793651</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>20</v>
-      </c>
-      <c r="L14" t="n">
-        <v>125.3</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1032,45 +924,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" t="n">
-        <v>4344.5476</v>
+        <v>33</v>
       </c>
       <c r="G15" t="n">
-        <v>123.65</v>
+        <v>-87499.65750793651</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>20</v>
-      </c>
-      <c r="L15" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1091,33 +971,21 @@
         <v>126</v>
       </c>
       <c r="F16" t="n">
-        <v>3556.8551</v>
+        <v>5.8015</v>
       </c>
       <c r="G16" t="n">
-        <v>123.6666666666667</v>
+        <v>-87493.85600793651</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>20</v>
-      </c>
-      <c r="L16" t="n">
-        <v>125.5</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,45 +994,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C17" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D17" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E17" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>5126.3666</v>
       </c>
       <c r="G17" t="n">
-        <v>123.7166666666667</v>
+        <v>-92620.22260793651</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L17" t="n">
-        <v>125.7</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,45 +1029,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C18" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D18" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E18" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F18" t="n">
-        <v>8525.3685</v>
+        <v>2187.5</v>
       </c>
       <c r="G18" t="n">
-        <v>123.7833333333333</v>
+        <v>-94807.72260793651</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L18" t="n">
-        <v>126</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1220,45 +1064,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C19" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D19" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E19" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F19" t="n">
-        <v>52</v>
+        <v>2127.7419</v>
       </c>
       <c r="G19" t="n">
-        <v>123.8666666666667</v>
+        <v>-94807.72260793651</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>9</v>
-      </c>
-      <c r="K19" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L19" t="n">
-        <v>126.4</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1267,45 +1099,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C20" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D20" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E20" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G20" t="n">
-        <v>123.9666666666667</v>
+        <v>-94841.72260793651</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>9</v>
-      </c>
-      <c r="K20" t="n">
-        <v>100</v>
-      </c>
-      <c r="L20" t="n">
-        <v>126.7</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,47 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C21" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D21" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E21" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F21" t="n">
-        <v>1067.2601</v>
+        <v>359.4088</v>
       </c>
       <c r="G21" t="n">
-        <v>124.05</v>
+        <v>-94841.72260793651</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="K21" t="n">
-        <v>50</v>
-      </c>
-      <c r="L21" t="n">
-        <v>127.1</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>125.95</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,47 +1173,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C22" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D22" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E22" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F22" t="n">
-        <v>18406.5445</v>
+        <v>5278.8657</v>
       </c>
       <c r="G22" t="n">
-        <v>124.1166666666667</v>
+        <v>-94841.72260793651</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="K22" t="n">
-        <v>50</v>
-      </c>
-      <c r="L22" t="n">
-        <v>127.3</v>
+        <v>123</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>126.15</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1412,47 +1216,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C23" t="n">
         <v>123</v>
       </c>
       <c r="D23" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E23" t="n">
         <v>123</v>
       </c>
       <c r="F23" t="n">
-        <v>7975.5969</v>
+        <v>8631.1458</v>
       </c>
       <c r="G23" t="n">
-        <v>124.1</v>
+        <v>-94841.72260793651</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="K23" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L23" t="n">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>126.1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1461,47 +1259,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C24" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D24" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E24" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>3308.9537</v>
       </c>
       <c r="G24" t="n">
-        <v>124.1333333333333</v>
+        <v>-94841.72260793651</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>127</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>126.15</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1522,35 +1310,29 @@
         <v>123</v>
       </c>
       <c r="F25" t="n">
-        <v>65.83499999999999</v>
+        <v>476.4257</v>
       </c>
       <c r="G25" t="n">
-        <v>124.0833333333333</v>
+        <v>-94841.72260793651</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="K25" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L25" t="n">
-        <v>126.7</v>
+        <v>123</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>126.05</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1562,44 +1344,38 @@
         <v>123</v>
       </c>
       <c r="C26" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D26" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E26" t="n">
         <v>123</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>5622.7428</v>
       </c>
       <c r="G26" t="n">
-        <v>124.1166666666667</v>
+        <v>-94841.72260793651</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="K26" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L26" t="n">
-        <v>126.7</v>
+        <v>123</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>126.1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1608,47 +1384,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C27" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D27" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E27" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>59.7581</v>
       </c>
       <c r="G27" t="n">
-        <v>124.1666666666667</v>
+        <v>-94841.72260793651</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>24</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L27" t="n">
-        <v>126.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>126.15</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1657,47 +1419,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C28" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D28" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E28" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>747.0359</v>
       </c>
       <c r="G28" t="n">
-        <v>124.1666666666667</v>
+        <v>-94841.72260793651</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>25</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L28" t="n">
-        <v>126.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>126.15</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1706,22 +1454,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E29" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29" t="n">
-        <v>487.1802</v>
+        <v>12240.9824</v>
       </c>
       <c r="G29" t="n">
-        <v>124.2166666666667</v>
+        <v>-94841.72260793651</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1729,24 +1477,10 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>26</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L29" t="n">
-        <v>125.8</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>126.1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1758,44 +1492,30 @@
         <v>124</v>
       </c>
       <c r="C30" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D30" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E30" t="n">
         <v>124</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>124.2333333333333</v>
+        <v>-94840.72260793651</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>28</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L30" t="n">
-        <v>125.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>126.1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1804,22 +1524,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E31" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F31" t="n">
-        <v>2398.6875</v>
+        <v>430.4446</v>
       </c>
       <c r="G31" t="n">
-        <v>124.2666666666667</v>
+        <v>-95271.16720793651</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1827,26 +1547,10 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>30</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L31" t="n">
-        <v>125.1</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>126.1</v>
-      </c>
-      <c r="N31" t="n">
-        <v>125.6666666666667</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1855,49 +1559,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C32" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D32" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E32" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F32" t="n">
-        <v>76.1666</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>124.3333333333333</v>
+        <v>-95270.16720793651</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>32</v>
-      </c>
-      <c r="K32" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L32" t="n">
-        <v>124.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>126.1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>125.7333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1909,46 +1597,30 @@
         <v>124</v>
       </c>
       <c r="C33" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D33" t="n">
         <v>124</v>
       </c>
       <c r="E33" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F33" t="n">
-        <v>24912.2285</v>
+        <v>78</v>
       </c>
       <c r="G33" t="n">
-        <v>124.35</v>
+        <v>-95270.16720793651</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>35</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L33" t="n">
-        <v>124.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>125.95</v>
-      </c>
-      <c r="N33" t="n">
-        <v>125.7</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1957,49 +1629,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G34" t="n">
-        <v>124.4333333333333</v>
+        <v>-94970.16720793651</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
-      </c>
-      <c r="J34" t="n">
-        <v>38</v>
-      </c>
-      <c r="K34" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L34" t="n">
-        <v>124.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>125.95</v>
-      </c>
-      <c r="N34" t="n">
-        <v>125.7333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,49 +1664,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C35" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D35" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E35" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F35" t="n">
-        <v>2260.6488</v>
+        <v>1060.776</v>
       </c>
       <c r="G35" t="n">
-        <v>124.5166666666667</v>
+        <v>-94970.16720793651</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
-      </c>
-      <c r="J35" t="n">
-        <v>38</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>125.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>125.95</v>
-      </c>
-      <c r="N35" t="n">
-        <v>125.7666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2059,49 +1699,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C36" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D36" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F36" t="n">
-        <v>1185.4999</v>
+        <v>16730.4231</v>
       </c>
       <c r="G36" t="n">
-        <v>124.6</v>
+        <v>-94970.16720793651</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
-      </c>
-      <c r="J36" t="n">
-        <v>38</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>125.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>125.95</v>
-      </c>
-      <c r="N36" t="n">
-        <v>125.8</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,49 +1734,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D37" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E37" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F37" t="n">
-        <v>943.5133</v>
+        <v>6402.4089</v>
       </c>
       <c r="G37" t="n">
-        <v>124.6833333333333</v>
+        <v>-94970.16720793651</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
-      </c>
-      <c r="J37" t="n">
-        <v>38</v>
-      </c>
-      <c r="K37" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L37" t="n">
-        <v>125.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>125.9</v>
-      </c>
-      <c r="N37" t="n">
-        <v>125.8333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2161,49 +1769,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C38" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D38" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E38" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F38" t="n">
-        <v>1056.4867</v>
+        <v>14905.763</v>
       </c>
       <c r="G38" t="n">
-        <v>124.7833333333333</v>
+        <v>-94970.16720793651</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
-      </c>
-      <c r="J38" t="n">
-        <v>38</v>
-      </c>
-      <c r="K38" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L38" t="n">
-        <v>125.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>125.8</v>
-      </c>
-      <c r="N38" t="n">
-        <v>125.8666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,49 +1804,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D39" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E39" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F39" t="n">
-        <v>1728.1176</v>
+        <v>66</v>
       </c>
       <c r="G39" t="n">
-        <v>124.8666666666667</v>
+        <v>-94970.16720793651</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
-      </c>
-      <c r="J39" t="n">
-        <v>39</v>
-      </c>
-      <c r="K39" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L39" t="n">
-        <v>125.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>125.7</v>
-      </c>
-      <c r="N39" t="n">
-        <v>125.9333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2263,49 +1839,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E40" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F40" t="n">
-        <v>4071</v>
+        <v>5054.5555</v>
       </c>
       <c r="G40" t="n">
-        <v>124.95</v>
+        <v>-89915.61170793651</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
-      </c>
-      <c r="J40" t="n">
-        <v>39</v>
-      </c>
-      <c r="K40" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L40" t="n">
-        <v>125.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="N40" t="n">
-        <v>125.9666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2314,49 +1874,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C41" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D41" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E41" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5984</v>
+        <v>12341.1191</v>
       </c>
       <c r="G41" t="n">
-        <v>125.05</v>
+        <v>-102256.7308079365</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
-      </c>
-      <c r="J41" t="n">
-        <v>39</v>
-      </c>
-      <c r="K41" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L41" t="n">
-        <v>126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>125.55</v>
-      </c>
-      <c r="N41" t="n">
-        <v>126.0666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2365,49 +1909,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C42" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E42" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F42" t="n">
-        <v>7196.7401</v>
+        <v>421.0317</v>
       </c>
       <c r="G42" t="n">
-        <v>125.1333333333333</v>
+        <v>-101835.6991079365</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
-      </c>
-      <c r="J42" t="n">
-        <v>39</v>
-      </c>
-      <c r="K42" t="n">
-        <v>100</v>
-      </c>
-      <c r="L42" t="n">
-        <v>126.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>125.5</v>
-      </c>
-      <c r="N42" t="n">
-        <v>126.1</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2416,49 +1944,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E43" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F43" t="n">
-        <v>3789.5748</v>
+        <v>1251.5225</v>
       </c>
       <c r="G43" t="n">
-        <v>125.1666666666667</v>
+        <v>-101835.6991079365</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
-      </c>
-      <c r="J43" t="n">
-        <v>39</v>
-      </c>
-      <c r="K43" t="n">
-        <v>100</v>
-      </c>
-      <c r="L43" t="n">
-        <v>126.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>125.7</v>
-      </c>
-      <c r="N43" t="n">
-        <v>126.1333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2467,49 +1979,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E44" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F44" t="n">
-        <v>2042.3385</v>
+        <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>125.2</v>
+        <v>-101835.6991079365</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
-      </c>
-      <c r="J44" t="n">
-        <v>39</v>
-      </c>
-      <c r="K44" t="n">
-        <v>100</v>
-      </c>
-      <c r="L44" t="n">
-        <v>126.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>125.75</v>
-      </c>
-      <c r="N44" t="n">
-        <v>126.1666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2518,49 +2014,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D45" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E45" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F45" t="n">
-        <v>1683.3464</v>
+        <v>4344.5476</v>
       </c>
       <c r="G45" t="n">
-        <v>125.2333333333333</v>
+        <v>-101835.6991079365</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>39</v>
-      </c>
-      <c r="K45" t="n">
-        <v>100</v>
-      </c>
-      <c r="L45" t="n">
-        <v>126.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>125.95</v>
-      </c>
-      <c r="N45" t="n">
-        <v>126.2</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2569,49 +2049,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C46" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D46" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E46" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F46" t="n">
-        <v>2049.1198</v>
+        <v>3556.8551</v>
       </c>
       <c r="G46" t="n">
-        <v>125.25</v>
+        <v>-101835.6991079365</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
-      </c>
-      <c r="J46" t="n">
-        <v>39</v>
-      </c>
-      <c r="K46" t="n">
-        <v>100</v>
-      </c>
-      <c r="L46" t="n">
-        <v>126.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>126</v>
-      </c>
-      <c r="N46" t="n">
-        <v>126.2333333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2632,37 +2096,21 @@
         <v>127</v>
       </c>
       <c r="F47" t="n">
-        <v>333</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>125.2833333333333</v>
+        <v>-101834.6991079365</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
-      </c>
-      <c r="J47" t="n">
-        <v>39</v>
-      </c>
-      <c r="K47" t="n">
-        <v>100</v>
-      </c>
-      <c r="L47" t="n">
-        <v>126.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>126.05</v>
-      </c>
-      <c r="N47" t="n">
-        <v>126.2333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,49 +2119,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C48" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D48" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E48" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F48" t="n">
-        <v>1335.2362</v>
+        <v>8525.3685</v>
       </c>
       <c r="G48" t="n">
-        <v>125.3166666666667</v>
+        <v>-93309.3306079365</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>40</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L48" t="n">
-        <v>126.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>126.1</v>
-      </c>
-      <c r="N48" t="n">
-        <v>126.1666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,49 +2154,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C49" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D49" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E49" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F49" t="n">
-        <v>2370.9052</v>
+        <v>52</v>
       </c>
       <c r="G49" t="n">
-        <v>125.35</v>
+        <v>-93257.3306079365</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
-      </c>
-      <c r="J49" t="n">
-        <v>40</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L49" t="n">
-        <v>126.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>126.2</v>
-      </c>
-      <c r="N49" t="n">
-        <v>126.0666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2773,49 +2189,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C50" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D50" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E50" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F50" t="n">
-        <v>1660.3427</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>125.4</v>
+        <v>-93257.3306079365</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>40</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L50" t="n">
-        <v>126.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>126.2</v>
-      </c>
-      <c r="N50" t="n">
-        <v>125.9666666666667</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2824,49 +2224,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C51" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D51" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E51" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F51" t="n">
-        <v>699</v>
+        <v>1067.2601</v>
       </c>
       <c r="G51" t="n">
-        <v>125.4666666666667</v>
+        <v>-94324.5907079365</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
-      </c>
-      <c r="J51" t="n">
-        <v>41</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>126.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>126.35</v>
-      </c>
-      <c r="N51" t="n">
-        <v>125.9333333333333</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2887,37 +2271,21 @@
         <v>128</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>18406.5445</v>
       </c>
       <c r="G52" t="n">
-        <v>125.55</v>
+        <v>-94324.5907079365</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
-      </c>
-      <c r="J52" t="n">
-        <v>42</v>
-      </c>
-      <c r="K52" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L52" t="n">
-        <v>126.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>126.45</v>
-      </c>
-      <c r="N52" t="n">
-        <v>125.9333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,49 +2294,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C53" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D53" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E53" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F53" t="n">
-        <v>2444.3289</v>
+        <v>7975.5969</v>
       </c>
       <c r="G53" t="n">
-        <v>125.65</v>
+        <v>-102300.1876079365</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>5</v>
-      </c>
-      <c r="J53" t="n">
-        <v>43</v>
-      </c>
-      <c r="K53" t="n">
-        <v>50</v>
-      </c>
-      <c r="L53" t="n">
-        <v>127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>126.75</v>
-      </c>
-      <c r="N53" t="n">
-        <v>126.1333333333333</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2977,49 +2329,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C54" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D54" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E54" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F54" t="n">
-        <v>4655.3992</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>125.75</v>
+        <v>-102299.1876079365</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>43</v>
-      </c>
-      <c r="K54" t="n">
-        <v>50</v>
-      </c>
-      <c r="L54" t="n">
-        <v>127.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>126.9</v>
-      </c>
-      <c r="N54" t="n">
-        <v>126.2333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3028,49 +2364,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C55" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D55" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E55" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F55" t="n">
-        <v>4655.3953</v>
+        <v>65.83499999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>125.85</v>
+        <v>-102365.0226079365</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>43</v>
-      </c>
-      <c r="K55" t="n">
-        <v>50</v>
-      </c>
-      <c r="L55" t="n">
-        <v>127.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>127.05</v>
-      </c>
-      <c r="N55" t="n">
-        <v>126.4333333333333</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3079,49 +2399,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C56" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D56" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E56" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F56" t="n">
-        <v>237.6939</v>
+        <v>5</v>
       </c>
       <c r="G56" t="n">
-        <v>125.95</v>
+        <v>-102360.0226079365</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
-      </c>
-      <c r="J56" t="n">
-        <v>43</v>
-      </c>
-      <c r="K56" t="n">
-        <v>50</v>
-      </c>
-      <c r="L56" t="n">
-        <v>127.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>127.2</v>
-      </c>
-      <c r="N56" t="n">
-        <v>126.5333333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3130,49 +2434,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C57" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D57" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E57" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3061</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>126.05</v>
+        <v>-102360.0226079365</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>43</v>
-      </c>
-      <c r="K57" t="n">
-        <v>100</v>
-      </c>
-      <c r="L57" t="n">
-        <v>127.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>127.35</v>
-      </c>
-      <c r="N57" t="n">
-        <v>126.6333333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3181,49 +2469,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C58" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D58" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E58" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F58" t="n">
-        <v>3168.9846</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>126.15</v>
+        <v>-102361.0226079365</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
-      </c>
-      <c r="J58" t="n">
-        <v>43</v>
-      </c>
-      <c r="K58" t="n">
-        <v>100</v>
-      </c>
-      <c r="L58" t="n">
-        <v>128.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="N58" t="n">
-        <v>126.7666666666667</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3232,49 +2504,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C59" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D59" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E59" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F59" t="n">
-        <v>5000</v>
+        <v>487.1802</v>
       </c>
       <c r="G59" t="n">
-        <v>126.2666666666667</v>
+        <v>-102848.2028079365</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>6</v>
-      </c>
-      <c r="J59" t="n">
-        <v>44</v>
-      </c>
-      <c r="K59" t="n">
-        <v>100</v>
-      </c>
-      <c r="L59" t="n">
-        <v>128.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>127.65</v>
-      </c>
-      <c r="N59" t="n">
-        <v>126.9666666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,49 +2539,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C60" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D60" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E60" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F60" t="n">
-        <v>106.4289</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>126.3333333333333</v>
+        <v>-102846.2028079365</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
-      </c>
-      <c r="J60" t="n">
-        <v>46</v>
-      </c>
-      <c r="K60" t="n">
-        <v>20</v>
-      </c>
-      <c r="L60" t="n">
-        <v>128.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="N60" t="n">
-        <v>127.0333333333333</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,49 +2574,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C61" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D61" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E61" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F61" t="n">
-        <v>38422.6232</v>
+        <v>2398.6875</v>
       </c>
       <c r="G61" t="n">
-        <v>126.4333333333333</v>
+        <v>-105244.8903079365</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>5</v>
-      </c>
-      <c r="J61" t="n">
-        <v>47</v>
-      </c>
-      <c r="K61" t="n">
-        <v>20</v>
-      </c>
-      <c r="L61" t="n">
-        <v>128.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>127.8</v>
-      </c>
-      <c r="N61" t="n">
-        <v>127.2</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3385,49 +2609,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C62" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D62" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E62" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F62" t="n">
-        <v>2988.2248</v>
+        <v>76.1666</v>
       </c>
       <c r="G62" t="n">
-        <v>126.5166666666667</v>
+        <v>-105168.7237079365</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>129</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>127.9</v>
-      </c>
-      <c r="N62" t="n">
-        <v>127.3</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3436,49 +2648,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C63" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D63" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E63" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F63" t="n">
-        <v>9671.7948</v>
+        <v>24912.2285</v>
       </c>
       <c r="G63" t="n">
-        <v>126.6</v>
+        <v>-130080.9522079365</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>128</v>
-      </c>
-      <c r="N63" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3487,49 +2689,41 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C64" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D64" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E64" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F64" t="n">
-        <v>1058.1241</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>126.6333333333333</v>
+        <v>-130079.9522079365</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="K64" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L64" t="n">
-        <v>128.8</v>
+        <v>124</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>128</v>
-      </c>
-      <c r="N64" t="n">
-        <v>127.5333333333333</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,49 +2732,41 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D65" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E65" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F65" t="n">
-        <v>4293.4624</v>
+        <v>2260.6488</v>
       </c>
       <c r="G65" t="n">
-        <v>126.6666666666667</v>
+        <v>-130079.9522079365</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="K65" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L65" t="n">
-        <v>128.6</v>
+        <v>124</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>128</v>
-      </c>
-      <c r="N65" t="n">
-        <v>127.5666666666667</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3601,37 +2787,27 @@
         <v>126</v>
       </c>
       <c r="F66" t="n">
-        <v>422.5394</v>
+        <v>1185.4999</v>
       </c>
       <c r="G66" t="n">
-        <v>126.6833333333333</v>
+        <v>-130079.9522079365</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
-      </c>
-      <c r="J66" t="n">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L66" t="n">
-        <v>128.3</v>
+        <v>124</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>127.95</v>
-      </c>
-      <c r="N66" t="n">
-        <v>127.5666666666667</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,49 +2816,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C67" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D67" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E67" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>943.5133</v>
       </c>
       <c r="G67" t="n">
-        <v>126.7333333333333</v>
+        <v>-130079.9522079365</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
-      </c>
-      <c r="J67" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L67" t="n">
-        <v>128.2</v>
+        <v>124</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>128</v>
-      </c>
-      <c r="N67" t="n">
-        <v>127.6333333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3691,49 +2857,41 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C68" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D68" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E68" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F68" t="n">
-        <v>1269.6299</v>
+        <v>1056.4867</v>
       </c>
       <c r="G68" t="n">
-        <v>126.7666666666667</v>
+        <v>-130079.9522079365</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="K68" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L68" t="n">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>128.05</v>
-      </c>
-      <c r="N68" t="n">
-        <v>127.6666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3745,46 +2903,36 @@
         <v>126</v>
       </c>
       <c r="C69" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D69" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E69" t="n">
         <v>126</v>
       </c>
       <c r="F69" t="n">
-        <v>3780.1009</v>
+        <v>1728.1176</v>
       </c>
       <c r="G69" t="n">
-        <v>126.7833333333333</v>
+        <v>-128351.8346079365</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L69" t="n">
-        <v>127.6</v>
+        <v>124</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>128.05</v>
-      </c>
-      <c r="N69" t="n">
-        <v>127.6333333333333</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,49 +2941,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C70" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D70" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E70" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F70" t="n">
-        <v>24014.1395</v>
+        <v>4071</v>
       </c>
       <c r="G70" t="n">
-        <v>126.7833333333333</v>
+        <v>-128351.8346079365</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J70" t="n">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L70" t="n">
-        <v>127.4</v>
+        <v>124</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>128.05</v>
-      </c>
-      <c r="N70" t="n">
-        <v>127.6</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,49 +2982,41 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C71" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D71" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E71" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F71" t="n">
-        <v>14408.4837</v>
+        <v>423.5984</v>
       </c>
       <c r="G71" t="n">
-        <v>126.8</v>
+        <v>-128351.8346079365</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="K71" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L71" t="n">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>127.95</v>
-      </c>
-      <c r="N71" t="n">
-        <v>127.5333333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3895,49 +3025,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C72" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D72" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E72" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F72" t="n">
-        <v>409.5081</v>
+        <v>7196.7401</v>
       </c>
       <c r="G72" t="n">
-        <v>126.7833333333333</v>
+        <v>-128351.8346079365</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L72" t="n">
-        <v>126.6</v>
+        <v>124</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>127.8</v>
-      </c>
-      <c r="N72" t="n">
-        <v>127.4666666666667</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3949,46 +3069,36 @@
         <v>127</v>
       </c>
       <c r="C73" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D73" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E73" t="n">
         <v>127</v>
       </c>
       <c r="F73" t="n">
-        <v>6292.0541</v>
+        <v>3789.5748</v>
       </c>
       <c r="G73" t="n">
-        <v>126.8166666666667</v>
+        <v>-128351.8346079365</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
-      </c>
-      <c r="J73" t="n">
-        <v>58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L73" t="n">
-        <v>126.5</v>
+        <v>124</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>127.75</v>
-      </c>
-      <c r="N73" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3997,49 +3107,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C74" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D74" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E74" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F74" t="n">
-        <v>1618.6562</v>
+        <v>2042.3385</v>
       </c>
       <c r="G74" t="n">
-        <v>126.85</v>
+        <v>-128351.8346079365</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
-      </c>
-      <c r="J74" t="n">
-        <v>58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L74" t="n">
-        <v>126.6</v>
+        <v>124</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="N74" t="n">
-        <v>127.5333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,49 +3148,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C75" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D75" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E75" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F75" t="n">
-        <v>102.9763</v>
+        <v>1683.3464</v>
       </c>
       <c r="G75" t="n">
-        <v>126.8833333333333</v>
+        <v>-128351.8346079365</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
-      </c>
-      <c r="J75" t="n">
-        <v>58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>25</v>
-      </c>
-      <c r="L75" t="n">
-        <v>126.7</v>
+        <v>124</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>127.65</v>
-      </c>
-      <c r="N75" t="n">
-        <v>127.5666666666667</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4099,49 +3189,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C76" t="n">
         <v>127</v>
       </c>
       <c r="D76" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E76" t="n">
         <v>127</v>
       </c>
       <c r="F76" t="n">
-        <v>4290.8702</v>
+        <v>2049.1198</v>
       </c>
       <c r="G76" t="n">
-        <v>126.9</v>
+        <v>-128351.8346079365</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L76" t="n">
-        <v>126.8</v>
+        <v>124</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>127.55</v>
-      </c>
-      <c r="N76" t="n">
-        <v>127.5666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,37 +3242,27 @@
         <v>127</v>
       </c>
       <c r="F77" t="n">
-        <v>6370.0094</v>
+        <v>333</v>
       </c>
       <c r="G77" t="n">
-        <v>126.9</v>
+        <v>-128351.8346079365</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
-      </c>
-      <c r="J77" t="n">
-        <v>59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>126.7</v>
+        <v>124</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>127.45</v>
-      </c>
-      <c r="N77" t="n">
-        <v>127.5666666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4201,49 +3271,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C78" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D78" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E78" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F78" t="n">
-        <v>2520.0852</v>
+        <v>1335.2362</v>
       </c>
       <c r="G78" t="n">
-        <v>126.9166666666667</v>
+        <v>-129687.0708079365</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J78" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L78" t="n">
-        <v>126.9</v>
+        <v>124</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>127.45</v>
-      </c>
-      <c r="N78" t="n">
-        <v>127.6666666666667</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4252,49 +3312,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C79" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D79" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E79" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F79" t="n">
-        <v>4</v>
+        <v>2370.9052</v>
       </c>
       <c r="G79" t="n">
-        <v>126.9166666666667</v>
+        <v>-129687.0708079365</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>5</v>
-      </c>
-      <c r="J79" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L79" t="n">
-        <v>127.2</v>
+        <v>124</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>127.4</v>
-      </c>
-      <c r="N79" t="n">
-        <v>127.7666666666667</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4303,49 +3353,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C80" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D80" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E80" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F80" t="n">
-        <v>4</v>
+        <v>1660.3427</v>
       </c>
       <c r="G80" t="n">
-        <v>126.9166666666667</v>
+        <v>-129687.0708079365</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>5</v>
-      </c>
-      <c r="J80" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L80" t="n">
-        <v>127.5</v>
+        <v>124</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>127.45</v>
-      </c>
-      <c r="N80" t="n">
-        <v>127.8666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,49 +3394,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C81" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D81" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E81" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>699</v>
       </c>
       <c r="G81" t="n">
-        <v>126.9333333333333</v>
+        <v>-128988.0708079365</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L81" t="n">
-        <v>127.9</v>
+        <v>124</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>127.45</v>
-      </c>
-      <c r="N81" t="n">
-        <v>127.9333333333333</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4405,49 +3435,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C82" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D82" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E82" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F82" t="n">
-        <v>776.1937984496124</v>
+        <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>126.95</v>
+        <v>-128978.0708079365</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>5</v>
-      </c>
-      <c r="J82" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L82" t="n">
-        <v>128.3</v>
+        <v>124</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>127.45</v>
-      </c>
-      <c r="N82" t="n">
-        <v>127.9666666666667</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4459,46 +3479,36 @@
         <v>128</v>
       </c>
       <c r="C83" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D83" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E83" t="n">
         <v>128</v>
       </c>
       <c r="F83" t="n">
-        <v>278.7331</v>
+        <v>2444.3289</v>
       </c>
       <c r="G83" t="n">
-        <v>127.0333333333333</v>
+        <v>-126533.7419079365</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>4</v>
-      </c>
-      <c r="J83" t="n">
-        <v>62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>128.3</v>
+        <v>124</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>127.4</v>
-      </c>
-      <c r="N83" t="n">
-        <v>127.9333333333333</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,7 +3517,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C84" t="n">
         <v>129</v>
@@ -4516,40 +3526,30 @@
         <v>129</v>
       </c>
       <c r="E84" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F84" t="n">
-        <v>500</v>
+        <v>4655.3992</v>
       </c>
       <c r="G84" t="n">
-        <v>127.0833333333333</v>
+        <v>-126533.7419079365</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>20</v>
-      </c>
-      <c r="L84" t="n">
-        <v>128.4</v>
+        <v>124</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="N84" t="n">
-        <v>127.9333333333333</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,49 +3558,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C85" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D85" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E85" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F85" t="n">
-        <v>3990</v>
+        <v>4655.3953</v>
       </c>
       <c r="G85" t="n">
-        <v>127.15</v>
+        <v>-126533.7419079365</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
-      </c>
-      <c r="J85" t="n">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>128.3</v>
+        <v>124</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="N85" t="n">
-        <v>127.8666666666667</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,40 +3608,30 @@
         <v>129</v>
       </c>
       <c r="E86" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F86" t="n">
-        <v>1130.6345</v>
+        <v>237.6939</v>
       </c>
       <c r="G86" t="n">
-        <v>127.2</v>
+        <v>-126533.7419079365</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>25</v>
-      </c>
-      <c r="L86" t="n">
-        <v>128.5</v>
+        <v>124</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>127.65</v>
-      </c>
-      <c r="N86" t="n">
-        <v>127.8666666666667</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4663,46 +3643,36 @@
         <v>129</v>
       </c>
       <c r="C87" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D87" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E87" t="n">
         <v>129</v>
       </c>
       <c r="F87" t="n">
-        <v>7773.632011550388</v>
+        <v>0.3061</v>
       </c>
       <c r="G87" t="n">
-        <v>127.2666666666667</v>
+        <v>-126533.7419079365</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L87" t="n">
-        <v>128.8</v>
+        <v>124</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>127.75</v>
-      </c>
-      <c r="N87" t="n">
-        <v>127.9</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4711,49 +3681,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C88" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D88" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E88" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>3168.9846</v>
       </c>
       <c r="G88" t="n">
-        <v>127.35</v>
+        <v>-126533.7419079365</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>6</v>
-      </c>
-      <c r="J88" t="n">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L88" t="n">
-        <v>128.9</v>
+        <v>124</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>127.9</v>
-      </c>
-      <c r="N88" t="n">
-        <v>127.9333333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4762,7 +3722,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C89" t="n">
         <v>130</v>
@@ -4771,40 +3731,30 @@
         <v>130</v>
       </c>
       <c r="E89" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F89" t="n">
-        <v>1896.6538</v>
+        <v>5000</v>
       </c>
       <c r="G89" t="n">
-        <v>127.45</v>
+        <v>-121533.7419079365</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>6</v>
-      </c>
-      <c r="J89" t="n">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L89" t="n">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>128.1</v>
-      </c>
-      <c r="N89" t="n">
-        <v>127.9333333333333</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4813,49 +3763,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C90" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D90" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E90" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F90" t="n">
-        <v>1513.75039</v>
+        <v>106.4289</v>
       </c>
       <c r="G90" t="n">
-        <v>127.5333333333333</v>
+        <v>-121640.1708079365</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>7</v>
-      </c>
-      <c r="J90" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>25</v>
-      </c>
-      <c r="L90" t="n">
-        <v>129.2</v>
+        <v>124</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>128.35</v>
-      </c>
-      <c r="N90" t="n">
-        <v>128.0333333333333</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4864,49 +3804,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C91" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D91" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E91" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>38422.6232</v>
       </c>
       <c r="G91" t="n">
-        <v>127.65</v>
+        <v>-83217.54760793652</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>7</v>
-      </c>
-      <c r="J91" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>25</v>
-      </c>
-      <c r="L91" t="n">
-        <v>129.4</v>
+        <v>124</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>128.65</v>
-      </c>
-      <c r="N91" t="n">
-        <v>128.1</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4915,49 +3845,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C92" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D92" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E92" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F92" t="n">
-        <v>1699.7251</v>
+        <v>2988.2248</v>
       </c>
       <c r="G92" t="n">
-        <v>127.7333333333333</v>
+        <v>-83217.54760793652</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>7</v>
-      </c>
-      <c r="J92" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L92" t="n">
-        <v>129.6</v>
+        <v>124</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>128.95</v>
-      </c>
-      <c r="N92" t="n">
-        <v>128.1666666666667</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4966,49 +3886,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C93" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D93" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E93" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F93" t="n">
-        <v>11085.1067</v>
+        <v>9671.7948</v>
       </c>
       <c r="G93" t="n">
-        <v>127.85</v>
+        <v>-83217.54760793652</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>6</v>
-      </c>
-      <c r="J93" t="n">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L93" t="n">
-        <v>129.8</v>
+        <v>124</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>129.05</v>
-      </c>
-      <c r="N93" t="n">
-        <v>128.2</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5017,53 +3927,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C94" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D94" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E94" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F94" t="n">
-        <v>2230.769230769231</v>
+        <v>1058.1241</v>
       </c>
       <c r="G94" t="n">
-        <v>127.9166666666667</v>
+        <v>-84275.67170793652</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>6</v>
-      </c>
-      <c r="J94" t="n">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>60</v>
-      </c>
-      <c r="L94" t="n">
-        <v>129.9</v>
+        <v>124</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>129.15</v>
-      </c>
-      <c r="N94" t="n">
-        <v>128.3</v>
-      </c>
-      <c r="O94" t="n">
-        <v>130</v>
-      </c>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="n">
-        <v>130</v>
-      </c>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5072,57 +3968,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C95" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D95" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E95" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F95" t="n">
-        <v>185.8416692307692</v>
+        <v>4293.4624</v>
       </c>
       <c r="G95" t="n">
-        <v>127.9833333333333</v>
+        <v>-84275.67170793652</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>6</v>
-      </c>
-      <c r="J95" t="n">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L95" t="n">
-        <v>130.2</v>
+        <v>124</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>129.25</v>
-      </c>
-      <c r="N95" t="n">
-        <v>128.4</v>
-      </c>
-      <c r="O95" t="n">
-        <v>130</v>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q95" t="n">
-        <v>130</v>
-      </c>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5131,57 +4009,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C96" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D96" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E96" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F96" t="n">
-        <v>14149.01393076923</v>
+        <v>422.5394</v>
       </c>
       <c r="G96" t="n">
-        <v>128.05</v>
+        <v>-84698.21110793651</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>6</v>
-      </c>
-      <c r="J96" t="n">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>130.3</v>
+        <v>124</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="N96" t="n">
-        <v>128.5333333333333</v>
-      </c>
-      <c r="O96" t="n">
-        <v>130</v>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q96" t="n">
-        <v>130</v>
-      </c>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5190,57 +4050,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C97" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D97" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E97" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F97" t="n">
-        <v>1372.0538</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>128.1333333333333</v>
+        <v>-84697.21110793651</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L97" t="n">
-        <v>130.4</v>
+        <v>124</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>129.6</v>
-      </c>
-      <c r="N97" t="n">
-        <v>128.6333333333333</v>
-      </c>
-      <c r="O97" t="n">
-        <v>130</v>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q97" t="n">
-        <v>130</v>
-      </c>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5249,57 +4091,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C98" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D98" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E98" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F98" t="n">
-        <v>4</v>
+        <v>1269.6299</v>
       </c>
       <c r="G98" t="n">
-        <v>128.2166666666667</v>
+        <v>-85966.84100793651</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>7</v>
-      </c>
-      <c r="J98" t="n">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L98" t="n">
-        <v>130.5</v>
+        <v>124</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>129.7</v>
-      </c>
-      <c r="N98" t="n">
-        <v>128.7666666666667</v>
-      </c>
-      <c r="O98" t="n">
-        <v>131</v>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q98" t="n">
-        <v>130</v>
-      </c>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5308,57 +4132,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C99" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D99" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E99" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F99" t="n">
-        <v>5</v>
+        <v>3780.1009</v>
       </c>
       <c r="G99" t="n">
-        <v>128.2833333333333</v>
+        <v>-89746.94190793652</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>7</v>
-      </c>
-      <c r="J99" t="n">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>130.6</v>
+        <v>124</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="N99" t="n">
-        <v>128.9333333333333</v>
-      </c>
-      <c r="O99" t="n">
-        <v>131</v>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q99" t="n">
-        <v>130</v>
-      </c>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5367,57 +4173,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C100" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D100" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E100" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F100" t="n">
-        <v>6745.832</v>
+        <v>24014.1395</v>
       </c>
       <c r="G100" t="n">
-        <v>128.35</v>
+        <v>-89746.94190793652</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>7</v>
-      </c>
-      <c r="J100" t="n">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>130.6</v>
+        <v>124</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="N100" t="n">
-        <v>129.1</v>
-      </c>
-      <c r="O100" t="n">
-        <v>131</v>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q100" t="n">
-        <v>130</v>
-      </c>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5426,57 +4214,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C101" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D101" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E101" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F101" t="n">
-        <v>17723.8114</v>
+        <v>14408.4837</v>
       </c>
       <c r="G101" t="n">
-        <v>128.4333333333333</v>
+        <v>-104155.4256079365</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>8</v>
-      </c>
-      <c r="J101" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L101" t="n">
-        <v>130.7</v>
+        <v>124</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>130.05</v>
-      </c>
-      <c r="N101" t="n">
-        <v>129.3333333333333</v>
-      </c>
-      <c r="O101" t="n">
-        <v>131</v>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q101" t="n">
-        <v>130</v>
-      </c>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5485,57 +4255,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C102" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D102" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E102" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F102" t="n">
-        <v>30956.9242</v>
+        <v>409.5081</v>
       </c>
       <c r="G102" t="n">
-        <v>128.5166666666667</v>
+        <v>-104155.4256079365</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>8</v>
-      </c>
-      <c r="J102" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>100</v>
-      </c>
-      <c r="L102" t="n">
-        <v>130.8</v>
+        <v>124</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="N102" t="n">
-        <v>129.5666666666667</v>
-      </c>
-      <c r="O102" t="n">
-        <v>132</v>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q102" t="n">
-        <v>130</v>
-      </c>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5544,57 +4296,812 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C103" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D103" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E103" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F103" t="n">
-        <v>7800.8439</v>
+        <v>6292.0541</v>
       </c>
       <c r="G103" t="n">
-        <v>128.6</v>
+        <v>-97863.37150793652</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>8</v>
-      </c>
-      <c r="J103" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>100</v>
-      </c>
-      <c r="L103" t="n">
+        <v>124</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>128</v>
+      </c>
+      <c r="C104" t="n">
+        <v>128</v>
+      </c>
+      <c r="D104" t="n">
+        <v>128</v>
+      </c>
+      <c r="E104" t="n">
+        <v>128</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1618.6562</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-97863.37150793652</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>124</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>128</v>
+      </c>
+      <c r="C105" t="n">
+        <v>128</v>
+      </c>
+      <c r="D105" t="n">
+        <v>128</v>
+      </c>
+      <c r="E105" t="n">
+        <v>128</v>
+      </c>
+      <c r="F105" t="n">
+        <v>102.9763</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-97863.37150793652</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>124</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>128</v>
+      </c>
+      <c r="C106" t="n">
+        <v>127</v>
+      </c>
+      <c r="D106" t="n">
+        <v>128</v>
+      </c>
+      <c r="E106" t="n">
+        <v>127</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4290.8702</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-102154.2417079365</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>124</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>127</v>
+      </c>
+      <c r="C107" t="n">
+        <v>127</v>
+      </c>
+      <c r="D107" t="n">
+        <v>127</v>
+      </c>
+      <c r="E107" t="n">
+        <v>127</v>
+      </c>
+      <c r="F107" t="n">
+        <v>6370.0094</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-102154.2417079365</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>124</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>129</v>
+      </c>
+      <c r="C108" t="n">
+        <v>129</v>
+      </c>
+      <c r="D108" t="n">
+        <v>129</v>
+      </c>
+      <c r="E108" t="n">
+        <v>129</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2520.0852</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-99634.15650793652</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>124</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>129</v>
+      </c>
+      <c r="C109" t="n">
+        <v>129</v>
+      </c>
+      <c r="D109" t="n">
+        <v>129</v>
+      </c>
+      <c r="E109" t="n">
+        <v>129</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-99634.15650793652</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>124</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>129</v>
+      </c>
+      <c r="C110" t="n">
+        <v>129</v>
+      </c>
+      <c r="D110" t="n">
+        <v>129</v>
+      </c>
+      <c r="E110" t="n">
+        <v>129</v>
+      </c>
+      <c r="F110" t="n">
+        <v>4</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-99634.15650793652</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>124</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>129</v>
+      </c>
+      <c r="C111" t="n">
+        <v>129</v>
+      </c>
+      <c r="D111" t="n">
+        <v>129</v>
+      </c>
+      <c r="E111" t="n">
+        <v>129</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-99634.15650793652</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>124</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>129</v>
+      </c>
+      <c r="C112" t="n">
+        <v>129</v>
+      </c>
+      <c r="D112" t="n">
+        <v>129</v>
+      </c>
+      <c r="E112" t="n">
+        <v>129</v>
+      </c>
+      <c r="F112" t="n">
+        <v>776.1937984496124</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-99634.15650793652</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>124</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>128</v>
+      </c>
+      <c r="C113" t="n">
+        <v>128</v>
+      </c>
+      <c r="D113" t="n">
+        <v>128</v>
+      </c>
+      <c r="E113" t="n">
+        <v>128</v>
+      </c>
+      <c r="F113" t="n">
+        <v>278.7331</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-99912.88960793652</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>124</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>128</v>
+      </c>
+      <c r="C114" t="n">
+        <v>129</v>
+      </c>
+      <c r="D114" t="n">
+        <v>129</v>
+      </c>
+      <c r="E114" t="n">
+        <v>128</v>
+      </c>
+      <c r="F114" t="n">
+        <v>500</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-99412.88960793652</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>124</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>128</v>
+      </c>
+      <c r="C115" t="n">
+        <v>127</v>
+      </c>
+      <c r="D115" t="n">
+        <v>128</v>
+      </c>
+      <c r="E115" t="n">
+        <v>127</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3990</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-103402.8896079365</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>124</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>129</v>
+      </c>
+      <c r="C116" t="n">
+        <v>129</v>
+      </c>
+      <c r="D116" t="n">
+        <v>129</v>
+      </c>
+      <c r="E116" t="n">
+        <v>128</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1130.6345</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-102272.2551079365</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>124</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>129</v>
+      </c>
+      <c r="C117" t="n">
+        <v>130</v>
+      </c>
+      <c r="D117" t="n">
+        <v>130</v>
+      </c>
+      <c r="E117" t="n">
+        <v>129</v>
+      </c>
+      <c r="F117" t="n">
+        <v>7773.632011550388</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-94498.62309638613</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>124</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>130</v>
+      </c>
+      <c r="C118" t="n">
+        <v>130</v>
+      </c>
+      <c r="D118" t="n">
+        <v>130</v>
+      </c>
+      <c r="E118" t="n">
+        <v>130</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-94498.62309638613</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>124</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>130</v>
+      </c>
+      <c r="C119" t="n">
+        <v>130</v>
+      </c>
+      <c r="D119" t="n">
+        <v>130</v>
+      </c>
+      <c r="E119" t="n">
+        <v>130</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1896.6538</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-94498.62309638613</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>124</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>130</v>
+      </c>
+      <c r="C120" t="n">
         <v>131</v>
       </c>
-      <c r="M103" t="n">
-        <v>130.4</v>
-      </c>
-      <c r="N103" t="n">
-        <v>129.7</v>
-      </c>
-      <c r="O103" t="n">
-        <v>132</v>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q103" t="n">
+      <c r="D120" t="n">
+        <v>131</v>
+      </c>
+      <c r="E120" t="n">
         <v>130</v>
       </c>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
+      <c r="F120" t="n">
+        <v>1513.75039</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-92984.87270638613</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>124</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>131</v>
+      </c>
+      <c r="C121" t="n">
+        <v>131</v>
+      </c>
+      <c r="D121" t="n">
+        <v>131</v>
+      </c>
+      <c r="E121" t="n">
+        <v>131</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-92984.87270638613</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>124</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1.051451612903226</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>131</v>
+      </c>
+      <c r="C122" t="n">
+        <v>131</v>
+      </c>
+      <c r="D122" t="n">
+        <v>131</v>
+      </c>
+      <c r="E122" t="n">
+        <v>131</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1699.7251</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-92984.87270638613</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest FX.xlsx
+++ b/BackTest/2019-11-01 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,6 +687,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,6 +731,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -762,6 +775,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -801,6 +815,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -842,6 +857,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -883,6 +899,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -918,6 +935,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -953,6 +971,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -988,6 +1007,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1023,6 +1043,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1058,6 +1079,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1093,6 +1115,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1128,6 +1151,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1167,6 +1191,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1210,6 +1235,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1253,6 +1279,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1292,6 +1319,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1335,6 +1363,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1378,6 +1407,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1413,6 +1443,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1448,6 +1479,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1483,6 +1515,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1518,6 +1551,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1553,6 +1587,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1588,6 +1623,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1623,6 +1659,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1658,6 +1695,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1693,6 +1731,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1728,6 +1767,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1763,6 +1803,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1798,6 +1839,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1833,6 +1875,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1868,6 +1911,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1903,6 +1947,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1938,6 +1983,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1973,6 +2019,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2008,6 +2055,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2043,6 +2091,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2078,6 +2127,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2113,6 +2163,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2148,6 +2199,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2183,6 +2235,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2218,6 +2271,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2253,6 +2307,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2288,6 +2343,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2323,6 +2379,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2358,6 +2415,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2393,6 +2451,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2428,6 +2487,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2463,6 +2523,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2498,6 +2559,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2533,6 +2595,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2568,6 +2631,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2603,6 +2667,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2642,6 +2707,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2683,6 +2749,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2726,6 +2793,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2769,6 +2837,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2810,6 +2879,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2851,6 +2921,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2894,6 +2965,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2935,6 +3007,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2976,6 +3049,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3019,6 +3093,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3060,6 +3135,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3101,6 +3177,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3142,6 +3219,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3183,6 +3261,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3224,6 +3303,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3265,6 +3345,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3306,6 +3387,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3347,6 +3429,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3388,6 +3471,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3429,6 +3513,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3470,6 +3555,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3511,6 +3597,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3552,6 +3639,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3593,6 +3681,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3634,6 +3723,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3675,6 +3765,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3716,6 +3807,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3757,6 +3849,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3784,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
@@ -3792,11 +3885,14 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1</v>
+        <v>1.027258064516129</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1.075</v>
       </c>
     </row>
     <row r="91">
@@ -3828,17 +3924,12 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>124</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3866,20 +3957,15 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>124</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3907,20 +3993,15 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>124</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3948,20 +4029,15 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>124</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3992,17 +4068,12 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>124</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4033,17 +4104,12 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>124</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4074,17 +4140,12 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>124</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4112,20 +4173,15 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>124</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4156,17 +4212,12 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>124</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4197,17 +4248,12 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>124</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4238,17 +4284,12 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>124</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4279,17 +4320,12 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>124</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4320,17 +4356,12 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>124</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4361,17 +4392,12 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>124</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4402,17 +4428,12 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>124</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4443,17 +4464,12 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>124</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4484,17 +4500,12 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>124</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4525,17 +4536,12 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>124</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4566,17 +4572,12 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>124</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4604,20 +4605,15 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>124</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4648,17 +4644,12 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>124</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4689,17 +4680,12 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>124</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4730,17 +4716,12 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>124</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4771,17 +4752,12 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>124</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4812,17 +4788,12 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>124</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4853,17 +4824,12 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>124</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4894,17 +4860,12 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>124</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4932,20 +4893,15 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>124</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4973,20 +4929,15 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>124</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5014,20 +4965,15 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>124</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5058,17 +5004,12 @@
         <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>124</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>1.051451612903226</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5104,6 +5045,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest FX.xlsx
+++ b/BackTest/2019-11-01 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D2" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E2" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F2" t="n">
-        <v>493.347</v>
+        <v>3649.577</v>
       </c>
       <c r="G2" t="n">
-        <v>-99047.3009079365</v>
+        <v>-95209.29849999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D3" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E3" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F3" t="n">
-        <v>7268.0225</v>
+        <v>1568.255</v>
       </c>
       <c r="G3" t="n">
-        <v>-99047.3009079365</v>
+        <v>-96777.55349999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C4" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D4" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E4" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F4" t="n">
-        <v>18493.5915</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>-117540.8924079365</v>
+        <v>-96775.55349999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C5" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D5" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E5" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F5" t="n">
-        <v>501.9823</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>-117540.8924079365</v>
+        <v>-96775.55349999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C6" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D6" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E6" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F6" t="n">
-        <v>1309.7527</v>
+        <v>5071.6309</v>
       </c>
       <c r="G6" t="n">
-        <v>-117540.8924079365</v>
+        <v>-101847.1844</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C7" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D7" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E7" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F7" t="n">
-        <v>18188.265</v>
+        <v>5372.9193</v>
       </c>
       <c r="G7" t="n">
-        <v>-117540.8924079365</v>
+        <v>-96474.2651</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,35 +654,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C8" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D8" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E8" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F8" t="n">
-        <v>5383.3021</v>
+        <v>3986.2009</v>
       </c>
       <c r="G8" t="n">
-        <v>-122924.1945079365</v>
+        <v>-100460.466</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>121</v>
-      </c>
-      <c r="K8" t="n">
-        <v>121</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -694,40 +690,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C9" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D9" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E9" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F9" t="n">
-        <v>10488.6065</v>
+        <v>3450.3171</v>
       </c>
       <c r="G9" t="n">
-        <v>-112435.5880079365</v>
+        <v>-97010.1489</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>120</v>
-      </c>
-      <c r="K9" t="n">
-        <v>121</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -738,40 +726,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C10" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D10" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E10" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F10" t="n">
-        <v>202.3012</v>
+        <v>7443.248</v>
       </c>
       <c r="G10" t="n">
-        <v>-112435.5880079365</v>
+        <v>-97010.1489</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>122</v>
-      </c>
-      <c r="K10" t="n">
-        <v>121</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -782,35 +762,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C11" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D11" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E11" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F11" t="n">
-        <v>132.7293</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>-112568.3173079365</v>
+        <v>-97010.1489</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>122</v>
-      </c>
-      <c r="K11" t="n">
-        <v>122</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -822,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C12" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D12" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E12" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F12" t="n">
-        <v>11341.1362</v>
+        <v>9218.696</v>
       </c>
       <c r="G12" t="n">
-        <v>-101227.1811079365</v>
+        <v>-97010.1489</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -846,14 +822,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>122</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -876,10 +846,10 @@
         <v>125</v>
       </c>
       <c r="F13" t="n">
-        <v>13727.5236</v>
+        <v>4266.664</v>
       </c>
       <c r="G13" t="n">
-        <v>-87499.65750793651</v>
+        <v>-97010.1489</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -888,14 +858,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>122</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -906,7 +870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" t="n">
         <v>125</v>
@@ -915,13 +879,13 @@
         <v>125</v>
       </c>
       <c r="E14" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" t="n">
-        <v>132.7293</v>
+        <v>11976.2987</v>
       </c>
       <c r="G14" t="n">
-        <v>-87499.65750793651</v>
+        <v>-97010.1489</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -954,10 +918,10 @@
         <v>125</v>
       </c>
       <c r="F15" t="n">
-        <v>33</v>
+        <v>3803.392</v>
       </c>
       <c r="G15" t="n">
-        <v>-87499.65750793651</v>
+        <v>-97010.1489</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -978,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D16" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E16" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F16" t="n">
-        <v>5.8015</v>
+        <v>1527.314</v>
       </c>
       <c r="G16" t="n">
-        <v>-87493.85600793651</v>
+        <v>-98537.4629</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1014,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F17" t="n">
-        <v>5126.3666</v>
+        <v>2994.7473</v>
       </c>
       <c r="G17" t="n">
-        <v>-92620.22260793651</v>
+        <v>-98537.4629</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1062,10 +1026,10 @@
         <v>124</v>
       </c>
       <c r="F18" t="n">
-        <v>2187.5</v>
+        <v>252.8757</v>
       </c>
       <c r="G18" t="n">
-        <v>-94807.72260793651</v>
+        <v>-98537.4629</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1086,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E19" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" t="n">
-        <v>2127.7419</v>
+        <v>2425.7454</v>
       </c>
       <c r="G19" t="n">
-        <v>-94807.72260793651</v>
+        <v>-100963.2083</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1134,10 +1098,10 @@
         <v>123</v>
       </c>
       <c r="F20" t="n">
-        <v>34</v>
+        <v>3733.2221</v>
       </c>
       <c r="G20" t="n">
-        <v>-94841.72260793651</v>
+        <v>-100963.2083</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1161,32 +1125,28 @@
         <v>123</v>
       </c>
       <c r="C21" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D21" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E21" t="n">
         <v>123</v>
       </c>
       <c r="F21" t="n">
-        <v>359.4088</v>
+        <v>7777.224</v>
       </c>
       <c r="G21" t="n">
-        <v>-94841.72260793651</v>
+        <v>-93185.9843</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>123</v>
-      </c>
-      <c r="K21" t="n">
-        <v>123</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
@@ -1198,40 +1158,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C22" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D22" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E22" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F22" t="n">
-        <v>5278.8657</v>
+        <v>19277.7876</v>
       </c>
       <c r="G22" t="n">
-        <v>-94841.72260793651</v>
+        <v>-93185.9843</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>123</v>
-      </c>
-      <c r="K22" t="n">
-        <v>123</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1242,40 +1194,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C23" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D23" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E23" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F23" t="n">
-        <v>8631.1458</v>
+        <v>57.0403</v>
       </c>
       <c r="G23" t="n">
-        <v>-94841.72260793651</v>
+        <v>-93185.9843</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>123</v>
-      </c>
-      <c r="K23" t="n">
-        <v>123</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1286,35 +1230,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C24" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D24" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E24" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F24" t="n">
-        <v>3308.9537</v>
+        <v>26588.57849206349</v>
       </c>
       <c r="G24" t="n">
-        <v>-94841.72260793651</v>
+        <v>-66597.40580793651</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>123</v>
-      </c>
-      <c r="K24" t="n">
-        <v>123</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
@@ -1326,40 +1266,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C25" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D25" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E25" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F25" t="n">
-        <v>476.4257</v>
+        <v>3208.4961</v>
       </c>
       <c r="G25" t="n">
-        <v>-94841.72260793651</v>
+        <v>-69805.90190793651</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>123</v>
-      </c>
-      <c r="K25" t="n">
-        <v>123</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1382,28 +1314,20 @@
         <v>123</v>
       </c>
       <c r="F26" t="n">
-        <v>5622.7428</v>
+        <v>581.9095</v>
       </c>
       <c r="G26" t="n">
-        <v>-94841.72260793651</v>
+        <v>-70387.8114079365</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>123</v>
-      </c>
-      <c r="K26" t="n">
-        <v>123</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1414,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C27" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D27" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E27" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F27" t="n">
-        <v>59.7581</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>-94841.72260793651</v>
+        <v>-70386.8114079365</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1453,19 +1377,19 @@
         <v>123</v>
       </c>
       <c r="C28" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D28" t="n">
         <v>123</v>
       </c>
       <c r="E28" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F28" t="n">
-        <v>747.0359</v>
+        <v>28453</v>
       </c>
       <c r="G28" t="n">
-        <v>-94841.72260793651</v>
+        <v>-98839.8114079365</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1486,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C29" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D29" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E29" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F29" t="n">
-        <v>12240.9824</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>-94841.72260793651</v>
+        <v>-98838.8114079365</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1522,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D30" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>208.4895</v>
       </c>
       <c r="G30" t="n">
-        <v>-94840.72260793651</v>
+        <v>-99047.3009079365</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1558,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E31" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F31" t="n">
-        <v>430.4446</v>
+        <v>493.347</v>
       </c>
       <c r="G31" t="n">
-        <v>-95271.16720793651</v>
+        <v>-99047.3009079365</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1594,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C32" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D32" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E32" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>7268.0225</v>
       </c>
       <c r="G32" t="n">
-        <v>-95270.16720793651</v>
+        <v>-99047.3009079365</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1630,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C33" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D33" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E33" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F33" t="n">
-        <v>78</v>
+        <v>18493.5915</v>
       </c>
       <c r="G33" t="n">
-        <v>-95270.16720793651</v>
+        <v>-117540.8924079365</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1666,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C34" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D34" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E34" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F34" t="n">
-        <v>300</v>
+        <v>501.9823</v>
       </c>
       <c r="G34" t="n">
-        <v>-94970.16720793651</v>
+        <v>-117540.8924079365</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1702,31 +1626,35 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C35" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D35" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E35" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F35" t="n">
-        <v>1060.776</v>
+        <v>1309.7527</v>
       </c>
       <c r="G35" t="n">
-        <v>-94970.16720793651</v>
+        <v>-117540.8924079365</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>121</v>
+      </c>
+      <c r="K35" t="n">
+        <v>121</v>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
@@ -1738,32 +1666,40 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C36" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D36" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E36" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F36" t="n">
-        <v>16730.4231</v>
+        <v>18188.265</v>
       </c>
       <c r="G36" t="n">
-        <v>-94970.16720793651</v>
+        <v>-117540.8924079365</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>121</v>
+      </c>
+      <c r="K36" t="n">
+        <v>121</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1774,32 +1710,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C37" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D37" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E37" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F37" t="n">
-        <v>6402.4089</v>
+        <v>5383.3021</v>
       </c>
       <c r="G37" t="n">
-        <v>-94970.16720793651</v>
+        <v>-122924.1945079365</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>121</v>
+      </c>
+      <c r="K37" t="n">
+        <v>121</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1810,31 +1754,35 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C38" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D38" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E38" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F38" t="n">
-        <v>14905.763</v>
+        <v>10488.6065</v>
       </c>
       <c r="G38" t="n">
-        <v>-94970.16720793651</v>
+        <v>-112435.5880079365</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>120</v>
+      </c>
+      <c r="K38" t="n">
+        <v>120</v>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
@@ -1846,32 +1794,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C39" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D39" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E39" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F39" t="n">
-        <v>66</v>
+        <v>202.3012</v>
       </c>
       <c r="G39" t="n">
-        <v>-94970.16720793651</v>
+        <v>-112435.5880079365</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>122</v>
+      </c>
+      <c r="K39" t="n">
+        <v>120</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1882,32 +1838,40 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C40" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D40" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E40" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F40" t="n">
-        <v>5054.5555</v>
+        <v>132.7293</v>
       </c>
       <c r="G40" t="n">
-        <v>-89915.61170793651</v>
+        <v>-112568.3173079365</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>122</v>
+      </c>
+      <c r="K40" t="n">
+        <v>120</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1918,31 +1882,35 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C41" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E41" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F41" t="n">
-        <v>12341.1191</v>
+        <v>11341.1362</v>
       </c>
       <c r="G41" t="n">
-        <v>-102256.7308079365</v>
+        <v>-101227.1811079365</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>121</v>
+      </c>
+      <c r="K41" t="n">
+        <v>121</v>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
@@ -1954,32 +1922,40 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C42" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E42" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F42" t="n">
-        <v>421.0317</v>
+        <v>13727.5236</v>
       </c>
       <c r="G42" t="n">
-        <v>-101835.6991079365</v>
+        <v>-87499.65750793651</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>122</v>
+      </c>
+      <c r="K42" t="n">
+        <v>121</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1990,22 +1966,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C43" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E43" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F43" t="n">
-        <v>1251.5225</v>
+        <v>132.7293</v>
       </c>
       <c r="G43" t="n">
-        <v>-101835.6991079365</v>
+        <v>-87499.65750793651</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2014,8 +1990,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>121</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2026,22 +2008,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C44" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D44" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E44" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G44" t="n">
-        <v>-101835.6991079365</v>
+        <v>-87499.65750793651</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2074,10 +2056,10 @@
         <v>126</v>
       </c>
       <c r="F45" t="n">
-        <v>4344.5476</v>
+        <v>5.8015</v>
       </c>
       <c r="G45" t="n">
-        <v>-101835.6991079365</v>
+        <v>-87493.85600793651</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2098,22 +2080,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C46" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D46" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E46" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F46" t="n">
-        <v>3556.8551</v>
+        <v>5126.3666</v>
       </c>
       <c r="G46" t="n">
-        <v>-101835.6991079365</v>
+        <v>-92620.22260793651</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2134,22 +2116,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C47" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D47" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E47" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2187.5</v>
       </c>
       <c r="G47" t="n">
-        <v>-101834.6991079365</v>
+        <v>-94807.72260793651</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2170,22 +2152,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C48" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D48" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E48" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F48" t="n">
-        <v>8525.3685</v>
+        <v>2127.7419</v>
       </c>
       <c r="G48" t="n">
-        <v>-93309.3306079365</v>
+        <v>-94807.72260793651</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2206,22 +2188,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C49" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D49" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E49" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F49" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G49" t="n">
-        <v>-93257.3306079365</v>
+        <v>-94841.72260793651</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2242,22 +2224,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C50" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D50" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E50" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>359.4088</v>
       </c>
       <c r="G50" t="n">
-        <v>-93257.3306079365</v>
+        <v>-94841.72260793651</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2278,31 +2260,35 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C51" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D51" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E51" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F51" t="n">
-        <v>1067.2601</v>
+        <v>5278.8657</v>
       </c>
       <c r="G51" t="n">
-        <v>-94324.5907079365</v>
+        <v>-94841.72260793651</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>123</v>
+      </c>
+      <c r="K51" t="n">
+        <v>123</v>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
@@ -2314,32 +2300,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C52" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D52" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E52" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F52" t="n">
-        <v>18406.5445</v>
+        <v>8631.1458</v>
       </c>
       <c r="G52" t="n">
-        <v>-94324.5907079365</v>
+        <v>-94841.72260793651</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>123</v>
+      </c>
+      <c r="K52" t="n">
+        <v>123</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2350,32 +2344,40 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C53" t="n">
         <v>123</v>
       </c>
       <c r="D53" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E53" t="n">
         <v>123</v>
       </c>
       <c r="F53" t="n">
-        <v>7975.5969</v>
+        <v>3308.9537</v>
       </c>
       <c r="G53" t="n">
-        <v>-102300.1876079365</v>
+        <v>-94841.72260793651</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>123</v>
+      </c>
+      <c r="K53" t="n">
+        <v>123</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2386,31 +2388,35 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C54" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D54" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E54" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>476.4257</v>
       </c>
       <c r="G54" t="n">
-        <v>-102299.1876079365</v>
+        <v>-94841.72260793651</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>123</v>
+      </c>
+      <c r="K54" t="n">
+        <v>123</v>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
@@ -2434,20 +2440,28 @@
         <v>123</v>
       </c>
       <c r="F55" t="n">
-        <v>65.83499999999999</v>
+        <v>5622.7428</v>
       </c>
       <c r="G55" t="n">
-        <v>-102365.0226079365</v>
+        <v>-94841.72260793651</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>123</v>
+      </c>
+      <c r="K55" t="n">
+        <v>123</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2461,29 +2475,37 @@
         <v>123</v>
       </c>
       <c r="C56" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D56" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E56" t="n">
         <v>123</v>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>59.7581</v>
       </c>
       <c r="G56" t="n">
-        <v>-102360.0226079365</v>
+        <v>-94841.72260793651</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>123</v>
+      </c>
+      <c r="K56" t="n">
+        <v>123</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2494,31 +2516,35 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C57" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D57" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E57" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>747.0359</v>
       </c>
       <c r="G57" t="n">
-        <v>-102360.0226079365</v>
+        <v>-94841.72260793651</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>123</v>
+      </c>
+      <c r="K57" t="n">
+        <v>123</v>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
@@ -2530,32 +2556,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C58" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D58" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E58" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>12240.9824</v>
       </c>
       <c r="G58" t="n">
-        <v>-102361.0226079365</v>
+        <v>-94841.72260793651</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>123</v>
+      </c>
+      <c r="K58" t="n">
+        <v>123</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2578,20 +2612,28 @@
         <v>124</v>
       </c>
       <c r="F59" t="n">
-        <v>487.1802</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>-102848.2028079365</v>
+        <v>-94840.72260793651</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>123</v>
+      </c>
+      <c r="K59" t="n">
+        <v>123</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2602,31 +2644,35 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C60" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D60" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E60" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>430.4446</v>
       </c>
       <c r="G60" t="n">
-        <v>-102846.2028079365</v>
+        <v>-95271.16720793651</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>124</v>
+      </c>
+      <c r="K60" t="n">
+        <v>124</v>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
@@ -2650,20 +2696,28 @@
         <v>124</v>
       </c>
       <c r="F61" t="n">
-        <v>2398.6875</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>-105244.8903079365</v>
+        <v>-95270.16720793651</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>123</v>
+      </c>
+      <c r="K61" t="n">
+        <v>124</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2674,22 +2728,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C62" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D62" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E62" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F62" t="n">
-        <v>76.1666</v>
+        <v>78</v>
       </c>
       <c r="G62" t="n">
-        <v>-105168.7237079365</v>
+        <v>-95270.16720793651</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -2703,7 +2757,11 @@
       <c r="K62" t="n">
         <v>124</v>
       </c>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2714,22 +2772,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C63" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D63" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E63" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F63" t="n">
-        <v>24912.2285</v>
+        <v>300</v>
       </c>
       <c r="G63" t="n">
-        <v>-130080.9522079365</v>
+        <v>-94970.16720793651</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2738,14 +2796,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>124</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2756,40 +2808,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C64" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D64" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E64" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>1060.776</v>
       </c>
       <c r="G64" t="n">
-        <v>-130079.9522079365</v>
+        <v>-94970.16720793651</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>123</v>
-      </c>
-      <c r="K64" t="n">
-        <v>124</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2800,40 +2844,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C65" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D65" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E65" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F65" t="n">
-        <v>2260.6488</v>
+        <v>16730.4231</v>
       </c>
       <c r="G65" t="n">
-        <v>-130079.9522079365</v>
+        <v>-94970.16720793651</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>126</v>
-      </c>
-      <c r="K65" t="n">
-        <v>124</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2844,22 +2880,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C66" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D66" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E66" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F66" t="n">
-        <v>1185.4999</v>
+        <v>6402.4089</v>
       </c>
       <c r="G66" t="n">
-        <v>-130079.9522079365</v>
+        <v>-94970.16720793651</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2868,14 +2904,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>124</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2886,22 +2916,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C67" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D67" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E67" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F67" t="n">
-        <v>943.5133</v>
+        <v>14905.763</v>
       </c>
       <c r="G67" t="n">
-        <v>-130079.9522079365</v>
+        <v>-94970.16720793651</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2910,14 +2940,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>124</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2928,40 +2952,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C68" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D68" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E68" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F68" t="n">
-        <v>1056.4867</v>
+        <v>66</v>
       </c>
       <c r="G68" t="n">
-        <v>-130079.9522079365</v>
+        <v>-94970.16720793651</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>126</v>
-      </c>
-      <c r="K68" t="n">
-        <v>124</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2975,19 +2991,19 @@
         <v>126</v>
       </c>
       <c r="C69" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D69" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E69" t="n">
         <v>126</v>
       </c>
       <c r="F69" t="n">
-        <v>1728.1176</v>
+        <v>5054.5555</v>
       </c>
       <c r="G69" t="n">
-        <v>-128351.8346079365</v>
+        <v>-89915.61170793651</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2996,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>124</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3014,22 +3024,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C70" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D70" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E70" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F70" t="n">
-        <v>4071</v>
+        <v>12341.1191</v>
       </c>
       <c r="G70" t="n">
-        <v>-128351.8346079365</v>
+        <v>-102256.7308079365</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3038,14 +3048,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>124</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3056,40 +3060,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C71" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D71" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E71" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F71" t="n">
-        <v>423.5984</v>
+        <v>421.0317</v>
       </c>
       <c r="G71" t="n">
-        <v>-128351.8346079365</v>
+        <v>-101835.6991079365</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>127</v>
-      </c>
-      <c r="K71" t="n">
-        <v>124</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3100,22 +3096,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C72" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D72" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E72" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F72" t="n">
-        <v>7196.7401</v>
+        <v>1251.5225</v>
       </c>
       <c r="G72" t="n">
-        <v>-128351.8346079365</v>
+        <v>-101835.6991079365</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3124,14 +3120,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>124</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3142,22 +3132,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C73" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D73" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E73" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F73" t="n">
-        <v>3789.5748</v>
+        <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>-128351.8346079365</v>
+        <v>-101835.6991079365</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3166,14 +3156,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>124</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3184,22 +3168,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D74" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E74" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F74" t="n">
-        <v>2042.3385</v>
+        <v>4344.5476</v>
       </c>
       <c r="G74" t="n">
-        <v>-128351.8346079365</v>
+        <v>-101835.6991079365</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3208,14 +3192,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>124</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3226,22 +3204,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C75" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D75" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E75" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F75" t="n">
-        <v>1683.3464</v>
+        <v>3556.8551</v>
       </c>
       <c r="G75" t="n">
-        <v>-128351.8346079365</v>
+        <v>-101835.6991079365</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3250,14 +3228,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>124</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3280,10 +3252,10 @@
         <v>127</v>
       </c>
       <c r="F76" t="n">
-        <v>2049.1198</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>-128351.8346079365</v>
+        <v>-101834.6991079365</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3292,14 +3264,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>124</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3313,19 +3279,19 @@
         <v>127</v>
       </c>
       <c r="C77" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D77" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E77" t="n">
         <v>127</v>
       </c>
       <c r="F77" t="n">
-        <v>333</v>
+        <v>8525.3685</v>
       </c>
       <c r="G77" t="n">
-        <v>-128351.8346079365</v>
+        <v>-93309.3306079365</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3334,14 +3300,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>124</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3352,22 +3312,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C78" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D78" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E78" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F78" t="n">
-        <v>1335.2362</v>
+        <v>52</v>
       </c>
       <c r="G78" t="n">
-        <v>-129687.0708079365</v>
+        <v>-93257.3306079365</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3376,14 +3336,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>124</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3394,38 +3348,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C79" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D79" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E79" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F79" t="n">
-        <v>2370.9052</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>-129687.0708079365</v>
+        <v>-93257.3306079365</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>124</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3436,38 +3384,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C80" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D80" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E80" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F80" t="n">
-        <v>1660.3427</v>
+        <v>1067.2601</v>
       </c>
       <c r="G80" t="n">
-        <v>-129687.0708079365</v>
+        <v>-94324.5907079365</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>124</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3478,38 +3420,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C81" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D81" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E81" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F81" t="n">
-        <v>699</v>
+        <v>18406.5445</v>
       </c>
       <c r="G81" t="n">
-        <v>-128988.0708079365</v>
+        <v>-94324.5907079365</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>124</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3520,38 +3456,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C82" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D82" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E82" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F82" t="n">
-        <v>10</v>
+        <v>7975.5969</v>
       </c>
       <c r="G82" t="n">
-        <v>-128978.0708079365</v>
+        <v>-102300.1876079365</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>124</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3562,38 +3492,36 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C83" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D83" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E83" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F83" t="n">
-        <v>2444.3289</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>-126533.7419079365</v>
+        <v>-102299.1876079365</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>123</v>
+      </c>
       <c r="K83" t="n">
-        <v>124</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3604,22 +3532,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C84" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D84" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E84" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F84" t="n">
-        <v>4655.3992</v>
+        <v>65.83499999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>-126533.7419079365</v>
+        <v>-102365.0226079365</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3629,11 +3557,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -3646,36 +3574,38 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C85" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D85" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E85" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F85" t="n">
-        <v>4655.3953</v>
+        <v>5</v>
       </c>
       <c r="G85" t="n">
-        <v>-126533.7419079365</v>
+        <v>-102360.0226079365</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>123</v>
+      </c>
       <c r="K85" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -3688,32 +3618,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C86" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D86" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E86" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F86" t="n">
-        <v>237.6939</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>-126533.7419079365</v>
+        <v>-102360.0226079365</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>126</v>
+      </c>
       <c r="K86" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3730,32 +3662,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C87" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D87" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E87" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F87" t="n">
-        <v>0.3061</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>-126533.7419079365</v>
+        <v>-102361.0226079365</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>126</v>
+      </c>
       <c r="K87" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3772,32 +3706,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C88" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D88" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E88" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F88" t="n">
-        <v>3168.9846</v>
+        <v>487.1802</v>
       </c>
       <c r="G88" t="n">
-        <v>-126533.7419079365</v>
+        <v>-102848.2028079365</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>125</v>
+      </c>
       <c r="K88" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3814,32 +3750,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C89" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D89" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E89" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F89" t="n">
-        <v>5000</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>-121533.7419079365</v>
+        <v>-102846.2028079365</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
       <c r="K89" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3856,76 +3794,84 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C90" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D90" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E90" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F90" t="n">
-        <v>106.4289</v>
+        <v>2398.6875</v>
       </c>
       <c r="G90" t="n">
-        <v>-121640.1708079365</v>
+        <v>-105244.8903079365</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>126</v>
+      </c>
       <c r="K90" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1.027258064516129</v>
-      </c>
-      <c r="N90" t="n">
-        <v>1.075</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C91" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D91" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E91" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F91" t="n">
-        <v>38422.6232</v>
+        <v>76.1666</v>
       </c>
       <c r="G91" t="n">
-        <v>-83217.54760793652</v>
+        <v>-105168.7237079365</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>124</v>
+      </c>
+      <c r="K91" t="n">
+        <v>123</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3936,32 +3882,38 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C92" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D92" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E92" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F92" t="n">
-        <v>2988.2248</v>
+        <v>24912.2285</v>
       </c>
       <c r="G92" t="n">
-        <v>-83217.54760793652</v>
+        <v>-130080.9522079365</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>123</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3972,32 +3924,40 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C93" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D93" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E93" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F93" t="n">
-        <v>9671.7948</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>-83217.54760793652</v>
+        <v>-130079.9522079365</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>123</v>
+      </c>
+      <c r="K93" t="n">
+        <v>123</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4008,32 +3968,38 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C94" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D94" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E94" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F94" t="n">
-        <v>1058.1241</v>
+        <v>2260.6488</v>
       </c>
       <c r="G94" t="n">
-        <v>-84275.67170793652</v>
+        <v>-130079.9522079365</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>123</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4044,22 +4010,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C95" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D95" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E95" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F95" t="n">
-        <v>4293.4624</v>
+        <v>1185.4999</v>
       </c>
       <c r="G95" t="n">
-        <v>-84275.67170793652</v>
+        <v>-130079.9522079365</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4068,8 +4034,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>123</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4092,10 +4064,10 @@
         <v>126</v>
       </c>
       <c r="F96" t="n">
-        <v>422.5394</v>
+        <v>943.5133</v>
       </c>
       <c r="G96" t="n">
-        <v>-84698.21110793651</v>
+        <v>-130079.9522079365</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4104,8 +4076,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>123</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4116,22 +4094,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C97" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D97" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E97" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>1056.4867</v>
       </c>
       <c r="G97" t="n">
-        <v>-84697.21110793651</v>
+        <v>-130079.9522079365</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4140,8 +4118,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>123</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4152,7 +4136,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C98" t="n">
         <v>127</v>
@@ -4161,23 +4145,29 @@
         <v>127</v>
       </c>
       <c r="E98" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F98" t="n">
-        <v>1269.6299</v>
+        <v>1728.1176</v>
       </c>
       <c r="G98" t="n">
-        <v>-85966.84100793651</v>
+        <v>-128351.8346079365</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>123</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4188,22 +4178,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C99" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D99" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E99" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F99" t="n">
-        <v>3780.1009</v>
+        <v>4071</v>
       </c>
       <c r="G99" t="n">
-        <v>-89746.94190793652</v>
+        <v>-128351.8346079365</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4212,8 +4202,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>123</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4224,22 +4220,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C100" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D100" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E100" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F100" t="n">
-        <v>24014.1395</v>
+        <v>423.5984</v>
       </c>
       <c r="G100" t="n">
-        <v>-89746.94190793652</v>
+        <v>-128351.8346079365</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4248,8 +4244,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>123</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4260,22 +4262,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C101" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D101" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E101" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F101" t="n">
-        <v>14408.4837</v>
+        <v>7196.7401</v>
       </c>
       <c r="G101" t="n">
-        <v>-104155.4256079365</v>
+        <v>-128351.8346079365</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4284,8 +4286,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>123</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4296,22 +4304,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C102" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D102" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E102" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F102" t="n">
-        <v>409.5081</v>
+        <v>3789.5748</v>
       </c>
       <c r="G102" t="n">
-        <v>-104155.4256079365</v>
+        <v>-128351.8346079365</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4320,8 +4328,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>123</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4335,19 +4349,19 @@
         <v>127</v>
       </c>
       <c r="C103" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D103" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E103" t="n">
         <v>127</v>
       </c>
       <c r="F103" t="n">
-        <v>6292.0541</v>
+        <v>2042.3385</v>
       </c>
       <c r="G103" t="n">
-        <v>-97863.37150793652</v>
+        <v>-128351.8346079365</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4356,8 +4370,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>123</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4368,22 +4388,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C104" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D104" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E104" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F104" t="n">
-        <v>1618.6562</v>
+        <v>1683.3464</v>
       </c>
       <c r="G104" t="n">
-        <v>-97863.37150793652</v>
+        <v>-128351.8346079365</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4392,8 +4412,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>123</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4404,22 +4430,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C105" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D105" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E105" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F105" t="n">
-        <v>102.9763</v>
+        <v>2049.1198</v>
       </c>
       <c r="G105" t="n">
-        <v>-97863.37150793652</v>
+        <v>-128351.8346079365</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4428,8 +4454,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>123</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4440,22 +4472,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C106" t="n">
         <v>127</v>
       </c>
       <c r="D106" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E106" t="n">
         <v>127</v>
       </c>
       <c r="F106" t="n">
-        <v>4290.8702</v>
+        <v>333</v>
       </c>
       <c r="G106" t="n">
-        <v>-102154.2417079365</v>
+        <v>-128351.8346079365</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4464,8 +4496,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>123</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4476,22 +4514,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C107" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D107" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E107" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F107" t="n">
-        <v>6370.0094</v>
+        <v>1335.2362</v>
       </c>
       <c r="G107" t="n">
-        <v>-102154.2417079365</v>
+        <v>-129687.0708079365</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4500,8 +4538,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>123</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4512,22 +4556,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C108" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D108" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E108" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F108" t="n">
-        <v>2520.0852</v>
+        <v>2370.9052</v>
       </c>
       <c r="G108" t="n">
-        <v>-99634.15650793652</v>
+        <v>-129687.0708079365</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4536,8 +4580,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>123</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4548,22 +4598,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C109" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D109" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E109" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F109" t="n">
-        <v>4</v>
+        <v>1660.3427</v>
       </c>
       <c r="G109" t="n">
-        <v>-99634.15650793652</v>
+        <v>-129687.0708079365</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4572,8 +4622,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>123</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4584,32 +4640,38 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C110" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D110" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E110" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F110" t="n">
-        <v>4</v>
+        <v>699</v>
       </c>
       <c r="G110" t="n">
-        <v>-99634.15650793652</v>
+        <v>-128988.0708079365</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>123</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4620,22 +4682,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C111" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D111" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E111" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>-99634.15650793652</v>
+        <v>-128978.0708079365</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4644,8 +4706,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>123</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4656,7 +4724,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C112" t="n">
         <v>129</v>
@@ -4665,13 +4733,13 @@
         <v>129</v>
       </c>
       <c r="E112" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F112" t="n">
-        <v>776.1937984496124</v>
+        <v>2444.3289</v>
       </c>
       <c r="G112" t="n">
-        <v>-99634.15650793652</v>
+        <v>-126533.7419079365</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4680,8 +4748,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>123</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4692,22 +4766,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C113" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D113" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E113" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F113" t="n">
-        <v>278.7331</v>
+        <v>4655.3992</v>
       </c>
       <c r="G113" t="n">
-        <v>-99912.88960793652</v>
+        <v>-126533.7419079365</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4716,8 +4790,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>123</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4728,7 +4808,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C114" t="n">
         <v>129</v>
@@ -4737,13 +4817,13 @@
         <v>129</v>
       </c>
       <c r="E114" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F114" t="n">
-        <v>500</v>
+        <v>4655.3953</v>
       </c>
       <c r="G114" t="n">
-        <v>-99412.88960793652</v>
+        <v>-126533.7419079365</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4752,8 +4832,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>123</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4764,22 +4850,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C115" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D115" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E115" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F115" t="n">
-        <v>3990</v>
+        <v>237.6939</v>
       </c>
       <c r="G115" t="n">
-        <v>-103402.8896079365</v>
+        <v>-126533.7419079365</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4788,8 +4874,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>123</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4809,13 +4901,13 @@
         <v>129</v>
       </c>
       <c r="E116" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F116" t="n">
-        <v>1130.6345</v>
+        <v>0.3061</v>
       </c>
       <c r="G116" t="n">
-        <v>-102272.2551079365</v>
+        <v>-126533.7419079365</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4824,8 +4916,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>123</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4839,19 +4937,19 @@
         <v>129</v>
       </c>
       <c r="C117" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D117" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E117" t="n">
         <v>129</v>
       </c>
       <c r="F117" t="n">
-        <v>7773.632011550388</v>
+        <v>3168.9846</v>
       </c>
       <c r="G117" t="n">
-        <v>-94498.62309638613</v>
+        <v>-126533.7419079365</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4860,8 +4958,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>123</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4872,7 +4976,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C118" t="n">
         <v>130</v>
@@ -4881,23 +4985,29 @@
         <v>130</v>
       </c>
       <c r="E118" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="G118" t="n">
-        <v>-94498.62309638613</v>
+        <v>-121533.7419079365</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>123</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4908,32 +5018,38 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C119" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D119" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E119" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F119" t="n">
-        <v>1896.6538</v>
+        <v>106.4289</v>
       </c>
       <c r="G119" t="n">
-        <v>-94498.62309638613</v>
+        <v>-121640.1708079365</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>123</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4944,32 +5060,38 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C120" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D120" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E120" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F120" t="n">
-        <v>1513.75039</v>
+        <v>38422.6232</v>
       </c>
       <c r="G120" t="n">
-        <v>-92984.87270638613</v>
+        <v>-83217.54760793652</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>123</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4980,32 +5102,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C121" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D121" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E121" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>2988.2248</v>
       </c>
       <c r="G121" t="n">
-        <v>-92984.87270638613</v>
+        <v>-83217.54760793652</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>123</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5016,36 +5144,1240 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>128</v>
+      </c>
+      <c r="C122" t="n">
+        <v>129</v>
+      </c>
+      <c r="D122" t="n">
+        <v>129</v>
+      </c>
+      <c r="E122" t="n">
+        <v>127</v>
+      </c>
+      <c r="F122" t="n">
+        <v>9671.7948</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-83217.54760793652</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>123</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>127</v>
+      </c>
+      <c r="C123" t="n">
+        <v>127</v>
+      </c>
+      <c r="D123" t="n">
+        <v>127</v>
+      </c>
+      <c r="E123" t="n">
+        <v>127</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1058.1241</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-84275.67170793652</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>123</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>127</v>
+      </c>
+      <c r="C124" t="n">
+        <v>127</v>
+      </c>
+      <c r="D124" t="n">
+        <v>127</v>
+      </c>
+      <c r="E124" t="n">
+        <v>127</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4293.4624</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-84275.67170793652</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>123</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>126</v>
+      </c>
+      <c r="C125" t="n">
+        <v>126</v>
+      </c>
+      <c r="D125" t="n">
+        <v>126</v>
+      </c>
+      <c r="E125" t="n">
+        <v>126</v>
+      </c>
+      <c r="F125" t="n">
+        <v>422.5394</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-84698.21110793651</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>123</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>128</v>
+      </c>
+      <c r="C126" t="n">
+        <v>128</v>
+      </c>
+      <c r="D126" t="n">
+        <v>128</v>
+      </c>
+      <c r="E126" t="n">
+        <v>128</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-84697.21110793651</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>123</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>127</v>
+      </c>
+      <c r="C127" t="n">
+        <v>127</v>
+      </c>
+      <c r="D127" t="n">
+        <v>127</v>
+      </c>
+      <c r="E127" t="n">
+        <v>127</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1269.6299</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-85966.84100793651</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>123</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>126</v>
+      </c>
+      <c r="C128" t="n">
+        <v>126</v>
+      </c>
+      <c r="D128" t="n">
+        <v>126</v>
+      </c>
+      <c r="E128" t="n">
+        <v>126</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3780.1009</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-89746.94190793652</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>123</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>126</v>
+      </c>
+      <c r="C129" t="n">
+        <v>126</v>
+      </c>
+      <c r="D129" t="n">
+        <v>126</v>
+      </c>
+      <c r="E129" t="n">
+        <v>126</v>
+      </c>
+      <c r="F129" t="n">
+        <v>24014.1395</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-89746.94190793652</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>123</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>126</v>
+      </c>
+      <c r="C130" t="n">
+        <v>125</v>
+      </c>
+      <c r="D130" t="n">
+        <v>126</v>
+      </c>
+      <c r="E130" t="n">
+        <v>125</v>
+      </c>
+      <c r="F130" t="n">
+        <v>14408.4837</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-104155.4256079365</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>123</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>125</v>
+      </c>
+      <c r="C131" t="n">
+        <v>125</v>
+      </c>
+      <c r="D131" t="n">
+        <v>125</v>
+      </c>
+      <c r="E131" t="n">
+        <v>125</v>
+      </c>
+      <c r="F131" t="n">
+        <v>409.5081</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-104155.4256079365</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>123</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>127</v>
+      </c>
+      <c r="C132" t="n">
+        <v>128</v>
+      </c>
+      <c r="D132" t="n">
+        <v>128</v>
+      </c>
+      <c r="E132" t="n">
+        <v>127</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6292.0541</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-97863.37150793652</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>123</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="C122" t="n">
+      <c r="B133" t="n">
+        <v>128</v>
+      </c>
+      <c r="C133" t="n">
+        <v>128</v>
+      </c>
+      <c r="D133" t="n">
+        <v>128</v>
+      </c>
+      <c r="E133" t="n">
+        <v>128</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1618.6562</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-97863.37150793652</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>123</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>128</v>
+      </c>
+      <c r="C134" t="n">
+        <v>128</v>
+      </c>
+      <c r="D134" t="n">
+        <v>128</v>
+      </c>
+      <c r="E134" t="n">
+        <v>128</v>
+      </c>
+      <c r="F134" t="n">
+        <v>102.9763</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-97863.37150793652</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>123</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>128</v>
+      </c>
+      <c r="C135" t="n">
+        <v>127</v>
+      </c>
+      <c r="D135" t="n">
+        <v>128</v>
+      </c>
+      <c r="E135" t="n">
+        <v>127</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4290.8702</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-102154.2417079365</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>123</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>127</v>
+      </c>
+      <c r="C136" t="n">
+        <v>127</v>
+      </c>
+      <c r="D136" t="n">
+        <v>127</v>
+      </c>
+      <c r="E136" t="n">
+        <v>127</v>
+      </c>
+      <c r="F136" t="n">
+        <v>6370.0094</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-102154.2417079365</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>123</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>129</v>
+      </c>
+      <c r="C137" t="n">
+        <v>129</v>
+      </c>
+      <c r="D137" t="n">
+        <v>129</v>
+      </c>
+      <c r="E137" t="n">
+        <v>129</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2520.0852</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-99634.15650793652</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>123</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>129</v>
+      </c>
+      <c r="C138" t="n">
+        <v>129</v>
+      </c>
+      <c r="D138" t="n">
+        <v>129</v>
+      </c>
+      <c r="E138" t="n">
+        <v>129</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-99634.15650793652</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>123</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>129</v>
+      </c>
+      <c r="C139" t="n">
+        <v>129</v>
+      </c>
+      <c r="D139" t="n">
+        <v>129</v>
+      </c>
+      <c r="E139" t="n">
+        <v>129</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-99634.15650793652</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>123</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>129</v>
+      </c>
+      <c r="C140" t="n">
+        <v>129</v>
+      </c>
+      <c r="D140" t="n">
+        <v>129</v>
+      </c>
+      <c r="E140" t="n">
+        <v>129</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-99634.15650793652</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>123</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>129</v>
+      </c>
+      <c r="C141" t="n">
+        <v>129</v>
+      </c>
+      <c r="D141" t="n">
+        <v>129</v>
+      </c>
+      <c r="E141" t="n">
+        <v>129</v>
+      </c>
+      <c r="F141" t="n">
+        <v>776.1937984496124</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-99634.15650793652</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>123</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>128</v>
+      </c>
+      <c r="C142" t="n">
+        <v>128</v>
+      </c>
+      <c r="D142" t="n">
+        <v>128</v>
+      </c>
+      <c r="E142" t="n">
+        <v>128</v>
+      </c>
+      <c r="F142" t="n">
+        <v>278.7331</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-99912.88960793652</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>123</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>128</v>
+      </c>
+      <c r="C143" t="n">
+        <v>129</v>
+      </c>
+      <c r="D143" t="n">
+        <v>129</v>
+      </c>
+      <c r="E143" t="n">
+        <v>128</v>
+      </c>
+      <c r="F143" t="n">
+        <v>500</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-99412.88960793652</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>123</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>128</v>
+      </c>
+      <c r="C144" t="n">
+        <v>127</v>
+      </c>
+      <c r="D144" t="n">
+        <v>128</v>
+      </c>
+      <c r="E144" t="n">
+        <v>127</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3990</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-103402.8896079365</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>123</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>129</v>
+      </c>
+      <c r="C145" t="n">
+        <v>129</v>
+      </c>
+      <c r="D145" t="n">
+        <v>129</v>
+      </c>
+      <c r="E145" t="n">
+        <v>128</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1130.6345</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-102272.2551079365</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>127</v>
+      </c>
+      <c r="K145" t="n">
+        <v>123</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>129</v>
+      </c>
+      <c r="C146" t="n">
+        <v>130</v>
+      </c>
+      <c r="D146" t="n">
+        <v>130</v>
+      </c>
+      <c r="E146" t="n">
+        <v>129</v>
+      </c>
+      <c r="F146" t="n">
+        <v>7773.632011550388</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-94498.62309638613</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>123</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>130</v>
+      </c>
+      <c r="C147" t="n">
+        <v>130</v>
+      </c>
+      <c r="D147" t="n">
+        <v>130</v>
+      </c>
+      <c r="E147" t="n">
+        <v>130</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-94498.62309638613</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>123</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1.051910569105691</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1.075</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>130</v>
+      </c>
+      <c r="C148" t="n">
+        <v>130</v>
+      </c>
+      <c r="D148" t="n">
+        <v>130</v>
+      </c>
+      <c r="E148" t="n">
+        <v>130</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1896.6538</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-94498.62309638613</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>130</v>
+      </c>
+      <c r="C149" t="n">
         <v>131</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D149" t="n">
         <v>131</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E149" t="n">
+        <v>130</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1513.75039</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-92984.87270638613</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
         <v>131</v>
       </c>
-      <c r="F122" t="n">
+      <c r="C150" t="n">
+        <v>131</v>
+      </c>
+      <c r="D150" t="n">
+        <v>131</v>
+      </c>
+      <c r="E150" t="n">
+        <v>131</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-92984.87270638613</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>131</v>
+      </c>
+      <c r="C151" t="n">
+        <v>131</v>
+      </c>
+      <c r="D151" t="n">
+        <v>131</v>
+      </c>
+      <c r="E151" t="n">
+        <v>131</v>
+      </c>
+      <c r="F151" t="n">
         <v>1699.7251</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G151" t="n">
         <v>-92984.87270638613</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest FX.xlsx
+++ b/BackTest/2019-11-01 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,19 @@
         <v>-100963.2083</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="J19" t="n">
+        <v>124</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1049,23 @@
         <v>-100963.2083</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>123</v>
+      </c>
+      <c r="J20" t="n">
+        <v>124</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1090,23 @@
         <v>-93185.9843</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>123</v>
+      </c>
+      <c r="J21" t="n">
+        <v>124</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1131,23 @@
         <v>-93185.9843</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="J22" t="n">
+        <v>124</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1172,23 @@
         <v>-93185.9843</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="J23" t="n">
+        <v>124</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1213,23 @@
         <v>-66597.40580793651</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="J24" t="n">
+        <v>124</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1256,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>124</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1295,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>124</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1334,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>124</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1373,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>124</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1412,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>124</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1451,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>124</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1490,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>124</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1529,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>124</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1566,23 @@
         <v>-117540.8924079365</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>122</v>
+      </c>
+      <c r="J33" t="n">
+        <v>124</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1607,23 @@
         <v>-117540.8924079365</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>121</v>
+      </c>
+      <c r="J34" t="n">
+        <v>124</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,22 +1648,23 @@
         <v>-117540.8924079365</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="J35" t="n">
-        <v>121</v>
-      </c>
-      <c r="K35" t="n">
-        <v>121</v>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1684,26 +1689,23 @@
         <v>-117540.8924079365</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="J36" t="n">
-        <v>121</v>
-      </c>
-      <c r="K36" t="n">
-        <v>121</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1728,26 +1730,23 @@
         <v>-122924.1945079365</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="J37" t="n">
-        <v>121</v>
-      </c>
-      <c r="K37" t="n">
-        <v>121</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1772,22 +1771,23 @@
         <v>-112435.5880079365</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J38" t="n">
-        <v>120</v>
-      </c>
-      <c r="K38" t="n">
-        <v>120</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1812,26 +1812,23 @@
         <v>-112435.5880079365</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="J39" t="n">
-        <v>122</v>
-      </c>
-      <c r="K39" t="n">
-        <v>120</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1856,26 +1853,21 @@
         <v>-112568.3173079365</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>122</v>
-      </c>
-      <c r="K40" t="n">
-        <v>120</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1900,22 +1892,23 @@
         <v>-101227.1811079365</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="J41" t="n">
-        <v>121</v>
-      </c>
-      <c r="K41" t="n">
-        <v>121</v>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1940,26 +1933,21 @@
         <v>-87499.65750793651</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>122</v>
-      </c>
-      <c r="K42" t="n">
-        <v>121</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1986,22 +1974,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>121</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>124</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2028,16 +2013,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>124</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2064,16 +2052,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>124</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2100,16 +2091,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>124</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2136,16 +2130,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>124</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2172,16 +2169,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>124</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2208,16 +2208,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>124</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2244,16 +2247,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>124</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2278,22 +2284,21 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>123</v>
-      </c>
-      <c r="K51" t="n">
-        <v>123</v>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2318,26 +2323,21 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>123</v>
-      </c>
-      <c r="K52" t="n">
-        <v>123</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2362,26 +2362,21 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>123</v>
-      </c>
-      <c r="K53" t="n">
-        <v>123</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2406,22 +2401,21 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>123</v>
-      </c>
-      <c r="K54" t="n">
-        <v>123</v>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2446,26 +2440,21 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>123</v>
-      </c>
-      <c r="K55" t="n">
-        <v>123</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2490,26 +2479,21 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>123</v>
-      </c>
-      <c r="K56" t="n">
-        <v>123</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2534,22 +2518,21 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>123</v>
-      </c>
-      <c r="K57" t="n">
-        <v>123</v>
-      </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2574,26 +2557,21 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>123</v>
-      </c>
-      <c r="K58" t="n">
-        <v>123</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2618,26 +2596,21 @@
         <v>-94840.72260793651</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>123</v>
-      </c>
-      <c r="K59" t="n">
-        <v>123</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2662,22 +2635,21 @@
         <v>-95271.16720793651</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>124</v>
       </c>
-      <c r="K60" t="n">
-        <v>124</v>
-      </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2702,26 +2674,21 @@
         <v>-95270.16720793651</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>123</v>
-      </c>
-      <c r="K61" t="n">
-        <v>124</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2748,24 +2715,19 @@
       <c r="H62" t="n">
         <v>1</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>124</v>
       </c>
-      <c r="K62" t="n">
-        <v>124</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2790,18 +2752,21 @@
         <v>-94970.16720793651</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>124</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2828,16 +2793,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>124</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2862,18 +2830,21 @@
         <v>-94970.16720793651</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>124</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2898,18 +2869,21 @@
         <v>-94970.16720793651</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>124</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2934,18 +2908,21 @@
         <v>-94970.16720793651</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>124</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2972,16 +2949,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>124</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3008,16 +2988,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>124</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3044,16 +3027,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>124</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3080,16 +3066,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>124</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3116,16 +3105,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>124</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3152,16 +3144,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>124</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3188,16 +3183,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>124</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3224,16 +3222,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>124</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3260,16 +3261,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>124</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3296,16 +3300,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>124</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3332,16 +3339,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>124</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3366,18 +3376,21 @@
         <v>-93257.3306079365</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>124</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3402,18 +3415,21 @@
         <v>-94324.5907079365</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>124</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3438,18 +3454,21 @@
         <v>-94324.5907079365</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>124</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3474,18 +3493,21 @@
         <v>-102300.1876079365</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>124</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3512,20 +3534,19 @@
       <c r="H83" t="n">
         <v>1</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>123</v>
-      </c>
-      <c r="K83" t="n">
-        <v>123</v>
-      </c>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3552,22 +3573,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>123</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>124</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3592,26 +3610,21 @@
         <v>-102360.0226079365</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>123</v>
-      </c>
-      <c r="K85" t="n">
-        <v>123</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3636,26 +3649,21 @@
         <v>-102360.0226079365</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>126</v>
-      </c>
-      <c r="K86" t="n">
-        <v>123</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3680,26 +3688,21 @@
         <v>-102361.0226079365</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>126</v>
-      </c>
-      <c r="K87" t="n">
-        <v>123</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>124</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1.003064516129032</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3724,26 +3727,15 @@
         <v>-102848.2028079365</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>125</v>
-      </c>
-      <c r="K88" t="n">
-        <v>123</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3768,26 +3760,15 @@
         <v>-102846.2028079365</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>124</v>
-      </c>
-      <c r="K89" t="n">
-        <v>123</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3812,26 +3793,15 @@
         <v>-105244.8903079365</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>126</v>
-      </c>
-      <c r="K90" t="n">
-        <v>123</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3856,26 +3826,15 @@
         <v>-105168.7237079365</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>124</v>
-      </c>
-      <c r="K91" t="n">
-        <v>123</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3902,22 +3861,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>123</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3942,26 +3892,15 @@
         <v>-130079.9522079365</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>123</v>
-      </c>
-      <c r="K93" t="n">
-        <v>123</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3988,22 +3927,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>123</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4030,22 +3960,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>123</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4072,22 +3993,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>123</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4114,22 +4026,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>123</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4156,22 +4059,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>123</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4198,22 +4092,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>123</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4240,22 +4125,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>123</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4280,24 +4156,15 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>123</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4324,22 +4191,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>123</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4364,24 +4222,15 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>123</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4408,22 +4257,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>123</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4450,22 +4290,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>123</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4492,22 +4323,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>123</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4534,22 +4356,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>123</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4576,22 +4389,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>123</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4618,22 +4422,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>123</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4660,22 +4455,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>123</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4702,22 +4488,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>123</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4744,22 +4521,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>123</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4784,24 +4552,15 @@
         <v>-126533.7419079365</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>123</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4826,24 +4585,15 @@
         <v>-126533.7419079365</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>123</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4868,24 +4618,15 @@
         <v>-126533.7419079365</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>123</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4910,24 +4651,15 @@
         <v>-126533.7419079365</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>123</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4952,24 +4684,15 @@
         <v>-126533.7419079365</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>123</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4994,24 +4717,15 @@
         <v>-121533.7419079365</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>123</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5036,24 +4750,15 @@
         <v>-121640.1708079365</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>123</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5080,22 +4785,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>123</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5120,24 +4816,15 @@
         <v>-83217.54760793652</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>123</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5164,22 +4851,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>123</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5206,22 +4884,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>123</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5248,22 +4917,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>123</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5290,22 +4950,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>123</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5332,22 +4983,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>123</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5374,22 +5016,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>123</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5416,22 +5049,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>123</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5458,22 +5082,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>123</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5500,22 +5115,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>123</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5542,22 +5148,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>123</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5584,22 +5181,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>123</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5626,22 +5214,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>123</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5668,22 +5247,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>123</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5710,22 +5280,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>123</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5752,22 +5313,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>123</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5794,22 +5346,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>123</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5836,22 +5379,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>123</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5878,22 +5412,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>123</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5918,24 +5443,15 @@
         <v>-99634.15650793652</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>123</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5962,22 +5478,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>123</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6004,22 +5511,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>123</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6046,22 +5544,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>123</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6088,22 +5577,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>123</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6128,26 +5608,15 @@
         <v>-102272.2551079365</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>127</v>
-      </c>
-      <c r="K145" t="n">
-        <v>123</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6174,22 +5643,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>123</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6216,24 +5676,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>123</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1.051910569105691</v>
-      </c>
-      <c r="N147" t="n">
-        <v>1.075</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6260,16 +5709,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6296,16 +5742,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6332,16 +5775,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6368,18 +5808,15 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest FX.xlsx
+++ b/BackTest/2019-11-01 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-95209.29849999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-96777.55349999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-96775.55349999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-101847.1844</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -1012,14 +1012,10 @@
         <v>-100963.2083</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>124</v>
-      </c>
-      <c r="J19" t="n">
-        <v>124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1049,19 +1045,11 @@
         <v>-100963.2083</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>123</v>
-      </c>
-      <c r="J20" t="n">
-        <v>124</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1090,19 +1078,11 @@
         <v>-93185.9843</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>123</v>
-      </c>
-      <c r="J21" t="n">
-        <v>124</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1131,19 +1111,11 @@
         <v>-93185.9843</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>124</v>
-      </c>
-      <c r="J22" t="n">
-        <v>124</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1172,19 +1144,11 @@
         <v>-93185.9843</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>124</v>
-      </c>
-      <c r="J23" t="n">
-        <v>124</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1213,19 +1177,11 @@
         <v>-66597.40580793651</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>124</v>
-      </c>
-      <c r="J24" t="n">
-        <v>124</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1257,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>124</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1296,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>124</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1335,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>124</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1374,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>124</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1413,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>124</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1452,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>124</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1491,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>124</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1530,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>124</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1566,19 +1474,11 @@
         <v>-117540.8924079365</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>122</v>
-      </c>
-      <c r="J33" t="n">
-        <v>124</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1607,19 +1507,11 @@
         <v>-117540.8924079365</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>121</v>
-      </c>
-      <c r="J34" t="n">
-        <v>124</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1648,19 +1540,15 @@
         <v>-117540.8924079365</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>121</v>
       </c>
       <c r="J35" t="n">
-        <v>124</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1689,17 +1577,17 @@
         <v>-117540.8924079365</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>121</v>
       </c>
       <c r="J36" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1730,17 +1618,17 @@
         <v>-122924.1945079365</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>121</v>
       </c>
       <c r="J37" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -1771,19 +1659,15 @@
         <v>-112435.5880079365</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>120</v>
       </c>
       <c r="J38" t="n">
-        <v>124</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1812,17 +1696,17 @@
         <v>-112435.5880079365</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>122</v>
       </c>
       <c r="J39" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1853,15 +1737,17 @@
         <v>-112568.3173079365</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>122</v>
+      </c>
       <c r="J40" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1892,19 +1778,15 @@
         <v>-101227.1811079365</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>121</v>
       </c>
       <c r="J41" t="n">
-        <v>124</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1933,15 +1815,17 @@
         <v>-87499.65750793651</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>122</v>
+      </c>
       <c r="J42" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -1972,15 +1856,17 @@
         <v>-87499.65750793651</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>125</v>
+      </c>
       <c r="J43" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -2014,14 +1900,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>124</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2053,14 +1933,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>124</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2092,14 +1966,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>124</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2131,14 +1999,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>124</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2170,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>124</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2209,14 +2065,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>124</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2248,14 +2098,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>124</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2284,17 +2128,15 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>123</v>
+      </c>
       <c r="J51" t="n">
-        <v>124</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2323,15 +2165,17 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>123</v>
+      </c>
       <c r="J52" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2362,15 +2206,17 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>123</v>
+      </c>
       <c r="J53" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2401,17 +2247,15 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>123</v>
+      </c>
       <c r="J54" t="n">
-        <v>124</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2444,11 +2288,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2483,11 +2327,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2521,14 +2365,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>124</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2560,14 +2398,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>124</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2599,14 +2431,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>124</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2638,14 +2464,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>124</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2677,14 +2497,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>124</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2713,17 +2527,11 @@
         <v>-95270.16720793651</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>124</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2752,17 +2560,11 @@
         <v>-94970.16720793651</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>124</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2794,14 +2596,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>124</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2830,17 +2626,11 @@
         <v>-94970.16720793651</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>124</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2869,17 +2659,11 @@
         <v>-94970.16720793651</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>124</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2908,17 +2692,11 @@
         <v>-94970.16720793651</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>124</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2950,14 +2728,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>124</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2989,14 +2761,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>124</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3028,14 +2794,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>124</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3067,14 +2827,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>124</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3106,14 +2860,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>124</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3145,14 +2893,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>124</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3184,14 +2926,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>124</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3223,14 +2959,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>124</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3262,14 +2992,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>124</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3301,14 +3025,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>124</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3340,14 +3058,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>124</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3376,17 +3088,11 @@
         <v>-93257.3306079365</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>124</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3415,17 +3121,11 @@
         <v>-94324.5907079365</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>124</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3454,17 +3154,11 @@
         <v>-94324.5907079365</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>124</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3493,17 +3187,11 @@
         <v>-102300.1876079365</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>124</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3532,17 +3220,11 @@
         <v>-102299.1876079365</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>124</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3571,17 +3253,15 @@
         <v>-102365.0226079365</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>126</v>
+      </c>
       <c r="J84" t="n">
-        <v>124</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3610,15 +3290,17 @@
         <v>-102360.0226079365</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>123</v>
+      </c>
       <c r="J85" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3649,11 +3331,13 @@
         <v>-102360.0226079365</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>126</v>
+      </c>
       <c r="J86" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3688,19 +3372,21 @@
         <v>-102361.0226079365</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>126</v>
+      </c>
       <c r="J87" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.003064516129032</v>
+        <v>1</v>
       </c>
       <c r="M87" t="inlineStr"/>
     </row>
@@ -3727,11 +3413,19 @@
         <v>-102848.2028079365</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>125</v>
+      </c>
+      <c r="J88" t="n">
+        <v>126</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3760,11 +3454,19 @@
         <v>-102846.2028079365</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>124</v>
+      </c>
+      <c r="J89" t="n">
+        <v>126</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3793,11 +3495,19 @@
         <v>-105244.8903079365</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>126</v>
+      </c>
+      <c r="J90" t="n">
+        <v>126</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3826,11 +3536,19 @@
         <v>-105168.7237079365</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>124</v>
+      </c>
+      <c r="J91" t="n">
+        <v>126</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3859,11 +3577,19 @@
         <v>-130080.9522079365</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>126</v>
+      </c>
+      <c r="J92" t="n">
+        <v>126</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3892,11 +3618,19 @@
         <v>-130079.9522079365</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>123</v>
+      </c>
+      <c r="J93" t="n">
+        <v>126</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3925,11 +3659,19 @@
         <v>-130079.9522079365</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>126</v>
+      </c>
+      <c r="J94" t="n">
+        <v>126</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3961,8 +3703,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>126</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3994,8 +3742,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>126</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4027,8 +3781,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>126</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4057,11 +3817,19 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>126</v>
+      </c>
+      <c r="J98" t="n">
+        <v>126</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4093,8 +3861,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>126</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4126,8 +3900,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>126</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4156,11 +3936,17 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>126</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4192,8 +3978,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>126</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4222,11 +4014,17 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>126</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4258,8 +4056,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>126</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4291,8 +4095,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>126</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4324,8 +4134,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>126</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4357,8 +4173,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>126</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4390,8 +4212,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>126</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4423,8 +4251,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>126</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4456,8 +4290,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>126</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4489,8 +4329,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>126</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4522,8 +4368,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>126</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4552,11 +4404,17 @@
         <v>-126533.7419079365</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>126</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4585,11 +4443,17 @@
         <v>-126533.7419079365</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>126</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4618,11 +4482,17 @@
         <v>-126533.7419079365</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>126</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4651,11 +4521,17 @@
         <v>-126533.7419079365</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>126</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4684,11 +4560,17 @@
         <v>-126533.7419079365</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>126</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4717,11 +4599,17 @@
         <v>-121533.7419079365</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>126</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4750,11 +4638,17 @@
         <v>-121640.1708079365</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>126</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4786,8 +4680,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>126</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4816,11 +4716,17 @@
         <v>-83217.54760793652</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>126</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4852,8 +4758,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>126</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4885,8 +4797,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>126</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4918,8 +4836,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>126</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4951,8 +4875,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>126</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4984,8 +4914,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>126</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5017,8 +4953,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>126</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5050,8 +4992,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>126</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5083,8 +5031,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>126</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5116,8 +5070,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>126</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5149,8 +5109,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>126</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5182,8 +5148,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>126</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5215,8 +5187,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>126</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5248,8 +5226,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>126</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5281,8 +5265,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>126</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5314,8 +5304,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>126</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5347,8 +5343,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>126</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5380,8 +5382,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>126</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5413,8 +5421,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>126</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5443,11 +5457,17 @@
         <v>-99634.15650793652</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>126</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5479,8 +5499,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>126</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5512,8 +5538,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>126</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5545,8 +5577,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>126</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5578,8 +5616,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>126</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5611,8 +5655,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>126</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5644,8 +5694,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>126</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5677,8 +5733,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>126</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5710,8 +5772,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>126</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5743,8 +5811,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>126</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5776,8 +5850,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>126</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5809,14 +5889,20 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>126</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
       <c r="M151" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest FX.xlsx
+++ b/BackTest/2019-11-01 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-95209.29849999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-96777.55349999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-96775.55349999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-101847.1844</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -1577,11 +1577,9 @@
         <v>-117540.8924079365</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>121</v>
       </c>
@@ -1618,11 +1616,9 @@
         <v>-122924.1945079365</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>121</v>
       </c>
@@ -1737,11 +1733,9 @@
         <v>-112568.3173079365</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>122</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>120</v>
       </c>
@@ -1856,11 +1850,9 @@
         <v>-87499.65750793651</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>121</v>
       </c>
@@ -2128,14 +2120,10 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>123</v>
-      </c>
-      <c r="J51" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2165,19 +2153,11 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>123</v>
-      </c>
-      <c r="J52" t="n">
-        <v>123</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2206,19 +2186,11 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>123</v>
-      </c>
-      <c r="J53" t="n">
-        <v>123</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2247,14 +2219,10 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>123</v>
-      </c>
-      <c r="J54" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
@@ -2287,14 +2255,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>123</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2326,14 +2288,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>123</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -3253,14 +3209,10 @@
         <v>-102365.0226079365</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>126</v>
-      </c>
-      <c r="J84" t="n">
-        <v>126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
@@ -3290,19 +3242,11 @@
         <v>-102360.0226079365</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>123</v>
-      </c>
-      <c r="J85" t="n">
-        <v>126</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3331,19 +3275,11 @@
         <v>-102360.0226079365</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>126</v>
-      </c>
-      <c r="J86" t="n">
-        <v>126</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3372,19 +3308,11 @@
         <v>-102361.0226079365</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>126</v>
-      </c>
-      <c r="J87" t="n">
-        <v>126</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3413,19 +3341,11 @@
         <v>-102848.2028079365</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>125</v>
-      </c>
-      <c r="J88" t="n">
-        <v>126</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3454,19 +3374,11 @@
         <v>-102846.2028079365</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>124</v>
-      </c>
-      <c r="J89" t="n">
-        <v>126</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3495,19 +3407,11 @@
         <v>-105244.8903079365</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>126</v>
-      </c>
-      <c r="J90" t="n">
-        <v>126</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3536,19 +3440,11 @@
         <v>-105168.7237079365</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>124</v>
-      </c>
-      <c r="J91" t="n">
-        <v>126</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3577,19 +3473,11 @@
         <v>-130080.9522079365</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>126</v>
-      </c>
-      <c r="J92" t="n">
-        <v>126</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3618,19 +3506,11 @@
         <v>-130079.9522079365</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>123</v>
-      </c>
-      <c r="J93" t="n">
-        <v>126</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3659,19 +3539,11 @@
         <v>-130079.9522079365</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>126</v>
-      </c>
-      <c r="J94" t="n">
-        <v>126</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3703,14 +3575,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>126</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3742,14 +3608,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>126</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3781,14 +3641,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>126</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3817,19 +3671,11 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>126</v>
-      </c>
-      <c r="J98" t="n">
-        <v>126</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3861,14 +3707,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>126</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3900,14 +3740,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>126</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3939,14 +3773,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>126</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3975,17 +3803,11 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>126</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4014,17 +3836,11 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>126</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4053,17 +3869,11 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>126</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4092,17 +3902,11 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>126</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4131,17 +3935,11 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>126</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4170,17 +3968,11 @@
         <v>-129687.0708079365</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>126</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4209,17 +4001,11 @@
         <v>-129687.0708079365</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>126</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4251,14 +4037,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>126</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4290,14 +4070,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>126</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4329,14 +4103,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>126</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4368,14 +4136,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>126</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4407,14 +4169,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>126</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4446,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>126</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4485,14 +4235,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>126</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4524,14 +4268,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>126</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4563,14 +4301,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>126</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4602,14 +4334,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>126</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4641,14 +4367,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>126</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4680,14 +4400,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>126</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4719,14 +4433,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>126</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4758,14 +4466,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>126</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4797,14 +4499,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>126</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4836,14 +4532,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>126</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4875,14 +4565,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>126</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4914,14 +4598,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>126</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4953,14 +4631,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>126</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4992,14 +4664,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>126</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5031,14 +4697,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>126</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5070,14 +4730,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>126</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5109,14 +4763,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>126</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5148,14 +4796,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>126</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5187,14 +4829,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>126</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5226,14 +4862,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>126</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5265,14 +4895,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>126</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5304,14 +4928,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>126</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5343,14 +4961,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>126</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5382,14 +4994,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>126</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5421,14 +5027,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>126</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5460,14 +5060,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>126</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5499,14 +5093,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>126</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5538,14 +5126,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>126</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5577,14 +5159,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>126</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5616,14 +5192,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>126</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5655,14 +5225,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>126</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5694,14 +5258,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>126</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5733,14 +5291,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>126</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5772,14 +5324,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>126</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5811,14 +5357,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>126</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5850,14 +5390,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>126</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5889,20 +5423,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>126</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
       <c r="M151" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest FX.xlsx
+++ b/BackTest/2019-11-01 BackTest FX.xlsx
@@ -1540,14 +1540,10 @@
         <v>-117540.8924079365</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>121</v>
-      </c>
-      <c r="J35" t="n">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
@@ -1577,17 +1573,15 @@
         <v>-117540.8924079365</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>121</v>
+      </c>
       <c r="J36" t="n">
         <v>121</v>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1616,9 +1610,11 @@
         <v>-122924.1945079365</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>121</v>
+      </c>
       <c r="J37" t="n">
         <v>121</v>
       </c>
@@ -1661,9 +1657,13 @@
         <v>120</v>
       </c>
       <c r="J38" t="n">
-        <v>120</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+        <v>121</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1698,13 +1698,9 @@
         <v>122</v>
       </c>
       <c r="J39" t="n">
-        <v>120</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1733,11 +1729,13 @@
         <v>-112568.3173079365</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>122</v>
+      </c>
       <c r="J40" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1778,9 +1776,13 @@
         <v>121</v>
       </c>
       <c r="J41" t="n">
-        <v>121</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+        <v>122</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1815,13 +1817,9 @@
         <v>122</v>
       </c>
       <c r="J42" t="n">
-        <v>121</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1854,7 +1852,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -1892,8 +1890,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>122</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2219,10 +2223,14 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>123</v>
+      </c>
+      <c r="J54" t="n">
+        <v>123</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
@@ -2252,11 +2260,19 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>123</v>
+      </c>
+      <c r="J55" t="n">
+        <v>123</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2285,11 +2301,19 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>123</v>
+      </c>
+      <c r="J56" t="n">
+        <v>123</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2318,10 +2342,14 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>123</v>
+      </c>
+      <c r="J57" t="n">
+        <v>123</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
@@ -2351,11 +2379,19 @@
         <v>-94841.72260793651</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>123</v>
+      </c>
+      <c r="J58" t="n">
+        <v>123</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2384,11 +2420,19 @@
         <v>-94840.72260793651</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>123</v>
+      </c>
+      <c r="J59" t="n">
+        <v>123</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2417,10 +2461,14 @@
         <v>-95271.16720793651</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>124</v>
+      </c>
+      <c r="J60" t="n">
+        <v>124</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
@@ -2450,11 +2498,19 @@
         <v>-95270.16720793651</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>123</v>
+      </c>
+      <c r="J61" t="n">
+        <v>124</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2483,11 +2539,19 @@
         <v>-95270.16720793651</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>124</v>
+      </c>
+      <c r="J62" t="n">
+        <v>124</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2516,10 +2580,14 @@
         <v>-94970.16720793651</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>124</v>
+      </c>
+      <c r="J63" t="n">
+        <v>124</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
@@ -2552,8 +2620,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>124</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2585,8 +2659,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>124</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3242,11 +3322,17 @@
         <v>-102360.0226079365</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>123</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3275,11 +3361,17 @@
         <v>-102360.0226079365</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>126</v>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3308,11 +3400,17 @@
         <v>-102361.0226079365</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>126</v>
+      </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3341,11 +3439,17 @@
         <v>-102848.2028079365</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>125</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3374,11 +3478,17 @@
         <v>-102846.2028079365</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>124</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3407,11 +3517,17 @@
         <v>-105244.8903079365</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>126</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3440,11 +3556,17 @@
         <v>-105168.7237079365</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>124</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3477,7 +3599,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3506,11 +3632,17 @@
         <v>-130079.9522079365</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>123</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3543,7 +3675,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3576,7 +3712,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3609,7 +3749,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3642,7 +3786,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3675,7 +3823,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3708,7 +3860,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3741,7 +3897,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3774,7 +3934,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3803,11 +3967,15 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3836,11 +4004,15 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3869,11 +4041,15 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3902,11 +4078,15 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3935,11 +4115,15 @@
         <v>-128351.8346079365</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3968,11 +4152,15 @@
         <v>-129687.0708079365</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4001,11 +4189,15 @@
         <v>-129687.0708079365</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4038,7 +4230,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4071,7 +4267,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4104,7 +4304,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4137,7 +4341,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4170,7 +4378,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4203,7 +4415,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4236,7 +4452,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4269,7 +4489,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4302,7 +4526,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4335,7 +4563,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4368,7 +4600,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4401,7 +4637,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4434,7 +4674,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4467,7 +4711,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4500,7 +4748,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4533,7 +4785,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4566,7 +4822,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4599,7 +4859,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4632,7 +4896,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4665,7 +4933,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4698,7 +4970,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4731,7 +5007,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4764,7 +5044,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4797,7 +5081,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4830,7 +5118,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4863,7 +5155,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4896,7 +5192,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4929,7 +5229,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4962,7 +5266,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4995,7 +5303,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5028,7 +5340,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5061,7 +5377,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5094,7 +5414,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5127,7 +5451,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5160,7 +5488,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5193,7 +5525,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5226,7 +5562,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5259,7 +5599,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5288,14 +5632,16 @@
         <v>-94498.62309638613</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
@@ -5321,7 +5667,7 @@
         <v>-94498.62309638613</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5354,7 +5700,7 @@
         <v>-92984.87270638613</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5387,7 +5733,7 @@
         <v>-92984.87270638613</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5420,7 +5766,7 @@
         <v>-92984.87270638613</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>

--- a/BackTest/2019-11-01 BackTest FX.xlsx
+++ b/BackTest/2019-11-01 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3649.577</v>
       </c>
       <c r="G2" t="n">
-        <v>-95209.29849999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1568.255</v>
       </c>
       <c r="G3" t="n">
-        <v>-96777.55349999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>-96775.55349999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>-96775.55349999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>5071.6309</v>
       </c>
       <c r="G6" t="n">
-        <v>-101847.1844</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>5372.9193</v>
       </c>
       <c r="G7" t="n">
-        <v>-96474.2651</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>3986.2009</v>
       </c>
       <c r="G8" t="n">
-        <v>-100460.466</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>3450.3171</v>
       </c>
       <c r="G9" t="n">
-        <v>-97010.1489</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>7443.248</v>
       </c>
       <c r="G10" t="n">
-        <v>-97010.1489</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>-97010.1489</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>9218.696</v>
       </c>
       <c r="G12" t="n">
-        <v>-97010.1489</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>4266.664</v>
       </c>
       <c r="G13" t="n">
-        <v>-97010.1489</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>11976.2987</v>
       </c>
       <c r="G14" t="n">
-        <v>-97010.1489</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3803.392</v>
       </c>
       <c r="G15" t="n">
-        <v>-97010.1489</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1527.314</v>
       </c>
       <c r="G16" t="n">
-        <v>-98537.4629</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>2994.7473</v>
       </c>
       <c r="G17" t="n">
-        <v>-98537.4629</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>252.8757</v>
       </c>
       <c r="G18" t="n">
-        <v>-98537.4629</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2425.7454</v>
       </c>
       <c r="G19" t="n">
-        <v>-100963.2083</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>3733.2221</v>
       </c>
       <c r="G20" t="n">
-        <v>-100963.2083</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>7777.224</v>
       </c>
       <c r="G21" t="n">
-        <v>-93185.9843</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>19277.7876</v>
       </c>
       <c r="G22" t="n">
-        <v>-93185.9843</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>57.0403</v>
       </c>
       <c r="G23" t="n">
-        <v>-93185.9843</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>26588.57849206349</v>
       </c>
       <c r="G24" t="n">
-        <v>-66597.40580793651</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>3208.4961</v>
       </c>
       <c r="G25" t="n">
-        <v>-69805.90190793651</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>581.9095</v>
       </c>
       <c r="G26" t="n">
-        <v>-70387.8114079365</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>-70386.8114079365</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>28453</v>
       </c>
       <c r="G28" t="n">
-        <v>-98839.8114079365</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>-98838.8114079365</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>208.4895</v>
       </c>
       <c r="G30" t="n">
-        <v>-99047.3009079365</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>493.347</v>
       </c>
       <c r="G31" t="n">
-        <v>-99047.3009079365</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>7268.0225</v>
       </c>
       <c r="G32" t="n">
-        <v>-99047.3009079365</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>18493.5915</v>
       </c>
       <c r="G33" t="n">
-        <v>-117540.8924079365</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>501.9823</v>
       </c>
       <c r="G34" t="n">
-        <v>-117540.8924079365</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1309.7527</v>
       </c>
       <c r="G35" t="n">
-        <v>-117540.8924079365</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,22 +1463,15 @@
         <v>18188.265</v>
       </c>
       <c r="G36" t="n">
-        <v>-117540.8924079365</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>121</v>
-      </c>
-      <c r="J36" t="n">
-        <v>121</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1607,262 +1493,231 @@
         <v>5383.3021</v>
       </c>
       <c r="G37" t="n">
-        <v>-122924.1945079365</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>121</v>
-      </c>
-      <c r="J37" t="n">
-        <v>121</v>
-      </c>
-      <c r="K37" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>122</v>
+      </c>
+      <c r="C38" t="n">
+        <v>122</v>
+      </c>
+      <c r="D38" t="n">
+        <v>122</v>
+      </c>
+      <c r="E38" t="n">
+        <v>122</v>
+      </c>
+      <c r="F38" t="n">
+        <v>10488.6065</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>120</v>
+      </c>
+      <c r="I38" t="n">
+        <v>120</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>122</v>
+      </c>
+      <c r="C39" t="n">
+        <v>122</v>
+      </c>
+      <c r="D39" t="n">
+        <v>122</v>
+      </c>
+      <c r="E39" t="n">
+        <v>122</v>
+      </c>
+      <c r="F39" t="n">
+        <v>202.3012</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>122</v>
+      </c>
+      <c r="I39" t="n">
+        <v>120</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>122</v>
-      </c>
-      <c r="C38" t="n">
-        <v>122</v>
-      </c>
-      <c r="D38" t="n">
-        <v>122</v>
-      </c>
-      <c r="E38" t="n">
-        <v>122</v>
-      </c>
-      <c r="F38" t="n">
-        <v>10488.6065</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-112435.5880079365</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>121</v>
+      </c>
+      <c r="C40" t="n">
+        <v>121</v>
+      </c>
+      <c r="D40" t="n">
+        <v>121</v>
+      </c>
+      <c r="E40" t="n">
+        <v>121</v>
+      </c>
+      <c r="F40" t="n">
+        <v>132.7293</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
         <v>120</v>
       </c>
-      <c r="J38" t="n">
-        <v>121</v>
-      </c>
-      <c r="K38" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
         <v>122</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C41" t="n">
         <v>122</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D41" t="n">
         <v>122</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E41" t="n">
         <v>122</v>
       </c>
-      <c r="F39" t="n">
-        <v>202.3012</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-112435.5880079365</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
+      <c r="F41" t="n">
+        <v>11341.1362</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>121</v>
+      </c>
+      <c r="I41" t="n">
+        <v>121</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>125</v>
+      </c>
+      <c r="C42" t="n">
+        <v>125</v>
+      </c>
+      <c r="D42" t="n">
+        <v>125</v>
+      </c>
+      <c r="E42" t="n">
+        <v>125</v>
+      </c>
+      <c r="F42" t="n">
+        <v>13727.5236</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
         <v>122</v>
       </c>
-      <c r="J39" t="n">
-        <v>122</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
+      <c r="I42" t="n">
         <v>121</v>
       </c>
-      <c r="C40" t="n">
-        <v>121</v>
-      </c>
-      <c r="D40" t="n">
-        <v>121</v>
-      </c>
-      <c r="E40" t="n">
-        <v>121</v>
-      </c>
-      <c r="F40" t="n">
-        <v>132.7293</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-112568.3173079365</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>122</v>
-      </c>
-      <c r="J40" t="n">
-        <v>122</v>
-      </c>
-      <c r="K40" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>122</v>
-      </c>
-      <c r="C41" t="n">
-        <v>122</v>
-      </c>
-      <c r="D41" t="n">
-        <v>122</v>
-      </c>
-      <c r="E41" t="n">
-        <v>122</v>
-      </c>
-      <c r="F41" t="n">
-        <v>11341.1362</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-101227.1811079365</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>125</v>
+      </c>
+      <c r="C43" t="n">
+        <v>125</v>
+      </c>
+      <c r="D43" t="n">
+        <v>125</v>
+      </c>
+      <c r="E43" t="n">
+        <v>125</v>
+      </c>
+      <c r="F43" t="n">
+        <v>132.7293</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
         <v>121</v>
       </c>
-      <c r="J41" t="n">
-        <v>122</v>
-      </c>
-      <c r="K41" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>125</v>
-      </c>
-      <c r="C42" t="n">
-        <v>125</v>
-      </c>
-      <c r="D42" t="n">
-        <v>125</v>
-      </c>
-      <c r="E42" t="n">
-        <v>125</v>
-      </c>
-      <c r="F42" t="n">
-        <v>13727.5236</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-87499.65750793651</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>122</v>
-      </c>
-      <c r="J42" t="n">
-        <v>122</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>125</v>
-      </c>
-      <c r="C43" t="n">
-        <v>125</v>
-      </c>
-      <c r="D43" t="n">
-        <v>125</v>
-      </c>
-      <c r="E43" t="n">
-        <v>125</v>
-      </c>
-      <c r="F43" t="n">
-        <v>132.7293</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-87499.65750793651</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>122</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1884,24 +1739,15 @@
         <v>33</v>
       </c>
       <c r="G44" t="n">
-        <v>-87499.65750793651</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>122</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1923,18 +1769,15 @@
         <v>5.8015</v>
       </c>
       <c r="G45" t="n">
-        <v>-87493.85600793651</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1956,18 +1799,15 @@
         <v>5126.3666</v>
       </c>
       <c r="G46" t="n">
-        <v>-92620.22260793651</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1989,18 +1829,15 @@
         <v>2187.5</v>
       </c>
       <c r="G47" t="n">
-        <v>-94807.72260793651</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2022,18 +1859,15 @@
         <v>2127.7419</v>
       </c>
       <c r="G48" t="n">
-        <v>-94807.72260793651</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2055,18 +1889,15 @@
         <v>34</v>
       </c>
       <c r="G49" t="n">
-        <v>-94841.72260793651</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2088,18 +1919,15 @@
         <v>359.4088</v>
       </c>
       <c r="G50" t="n">
-        <v>-94841.72260793651</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2121,18 +1949,15 @@
         <v>5278.8657</v>
       </c>
       <c r="G51" t="n">
-        <v>-94841.72260793651</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2154,18 +1979,15 @@
         <v>8631.1458</v>
       </c>
       <c r="G52" t="n">
-        <v>-94841.72260793651</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2187,18 +2009,15 @@
         <v>3308.9537</v>
       </c>
       <c r="G53" t="n">
-        <v>-94841.72260793651</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2220,22 +2039,15 @@
         <v>476.4257</v>
       </c>
       <c r="G54" t="n">
-        <v>-94841.72260793651</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>123</v>
-      </c>
-      <c r="J54" t="n">
-        <v>123</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2257,26 +2069,15 @@
         <v>5622.7428</v>
       </c>
       <c r="G55" t="n">
-        <v>-94841.72260793651</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>123</v>
-      </c>
-      <c r="J55" t="n">
-        <v>123</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2298,26 +2099,15 @@
         <v>59.7581</v>
       </c>
       <c r="G56" t="n">
-        <v>-94841.72260793651</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>123</v>
-      </c>
-      <c r="J56" t="n">
-        <v>123</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2339,22 +2129,15 @@
         <v>747.0359</v>
       </c>
       <c r="G57" t="n">
-        <v>-94841.72260793651</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>123</v>
-      </c>
-      <c r="J57" t="n">
-        <v>123</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2376,26 +2159,15 @@
         <v>12240.9824</v>
       </c>
       <c r="G58" t="n">
-        <v>-94841.72260793651</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>123</v>
-      </c>
-      <c r="J58" t="n">
-        <v>123</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2417,26 +2189,15 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>-94840.72260793651</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>123</v>
-      </c>
-      <c r="J59" t="n">
-        <v>123</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2458,22 +2219,15 @@
         <v>430.4446</v>
       </c>
       <c r="G60" t="n">
-        <v>-95271.16720793651</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>124</v>
-      </c>
-      <c r="J60" t="n">
-        <v>124</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2495,26 +2249,15 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>-95270.16720793651</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>123</v>
-      </c>
-      <c r="J61" t="n">
-        <v>124</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2536,26 +2279,15 @@
         <v>78</v>
       </c>
       <c r="G62" t="n">
-        <v>-95270.16720793651</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>124</v>
-      </c>
-      <c r="J62" t="n">
-        <v>124</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2577,22 +2309,15 @@
         <v>300</v>
       </c>
       <c r="G63" t="n">
-        <v>-94970.16720793651</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>124</v>
-      </c>
-      <c r="J63" t="n">
-        <v>124</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2614,24 +2339,15 @@
         <v>1060.776</v>
       </c>
       <c r="G64" t="n">
-        <v>-94970.16720793651</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>124</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2653,24 +2369,15 @@
         <v>16730.4231</v>
       </c>
       <c r="G65" t="n">
-        <v>-94970.16720793651</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>124</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2692,18 +2399,15 @@
         <v>6402.4089</v>
       </c>
       <c r="G66" t="n">
-        <v>-94970.16720793651</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2725,18 +2429,15 @@
         <v>14905.763</v>
       </c>
       <c r="G67" t="n">
-        <v>-94970.16720793651</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2758,18 +2459,15 @@
         <v>66</v>
       </c>
       <c r="G68" t="n">
-        <v>-94970.16720793651</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2791,18 +2489,15 @@
         <v>5054.5555</v>
       </c>
       <c r="G69" t="n">
-        <v>-89915.61170793651</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2824,18 +2519,15 @@
         <v>12341.1191</v>
       </c>
       <c r="G70" t="n">
-        <v>-102256.7308079365</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2857,18 +2549,15 @@
         <v>421.0317</v>
       </c>
       <c r="G71" t="n">
-        <v>-101835.6991079365</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2890,18 +2579,15 @@
         <v>1251.5225</v>
       </c>
       <c r="G72" t="n">
-        <v>-101835.6991079365</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2923,18 +2609,15 @@
         <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>-101835.6991079365</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2956,18 +2639,15 @@
         <v>4344.5476</v>
       </c>
       <c r="G74" t="n">
-        <v>-101835.6991079365</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2989,18 +2669,15 @@
         <v>3556.8551</v>
       </c>
       <c r="G75" t="n">
-        <v>-101835.6991079365</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3022,18 +2699,15 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>-101834.6991079365</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3055,18 +2729,15 @@
         <v>8525.3685</v>
       </c>
       <c r="G77" t="n">
-        <v>-93309.3306079365</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3088,18 +2759,15 @@
         <v>52</v>
       </c>
       <c r="G78" t="n">
-        <v>-93257.3306079365</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3121,18 +2789,15 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>-93257.3306079365</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3154,18 +2819,15 @@
         <v>1067.2601</v>
       </c>
       <c r="G80" t="n">
-        <v>-94324.5907079365</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3187,18 +2849,15 @@
         <v>18406.5445</v>
       </c>
       <c r="G81" t="n">
-        <v>-94324.5907079365</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3220,18 +2879,15 @@
         <v>7975.5969</v>
       </c>
       <c r="G82" t="n">
-        <v>-102300.1876079365</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3253,18 +2909,15 @@
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>-102299.1876079365</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3286,18 +2939,15 @@
         <v>65.83499999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>-102365.0226079365</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3319,24 +2969,15 @@
         <v>5</v>
       </c>
       <c r="G85" t="n">
-        <v>-102360.0226079365</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3358,24 +2999,15 @@
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>-102360.0226079365</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3397,24 +3029,15 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>-102361.0226079365</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3436,24 +3059,15 @@
         <v>487.1802</v>
       </c>
       <c r="G88" t="n">
-        <v>-102848.2028079365</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3475,24 +3089,15 @@
         <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>-102846.2028079365</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3514,24 +3119,15 @@
         <v>2398.6875</v>
       </c>
       <c r="G90" t="n">
-        <v>-105244.8903079365</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3553,24 +3149,15 @@
         <v>76.1666</v>
       </c>
       <c r="G91" t="n">
-        <v>-105168.7237079365</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3592,22 +3179,15 @@
         <v>24912.2285</v>
       </c>
       <c r="G92" t="n">
-        <v>-130080.9522079365</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3629,24 +3209,15 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>-130079.9522079365</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3668,22 +3239,15 @@
         <v>2260.6488</v>
       </c>
       <c r="G94" t="n">
-        <v>-130079.9522079365</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3705,22 +3269,15 @@
         <v>1185.4999</v>
       </c>
       <c r="G95" t="n">
-        <v>-130079.9522079365</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3742,22 +3299,15 @@
         <v>943.5133</v>
       </c>
       <c r="G96" t="n">
-        <v>-130079.9522079365</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3779,22 +3329,15 @@
         <v>1056.4867</v>
       </c>
       <c r="G97" t="n">
-        <v>-130079.9522079365</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3816,22 +3359,15 @@
         <v>1728.1176</v>
       </c>
       <c r="G98" t="n">
-        <v>-128351.8346079365</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3853,22 +3389,15 @@
         <v>4071</v>
       </c>
       <c r="G99" t="n">
-        <v>-128351.8346079365</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3890,22 +3419,15 @@
         <v>423.5984</v>
       </c>
       <c r="G100" t="n">
-        <v>-128351.8346079365</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3927,22 +3449,15 @@
         <v>7196.7401</v>
       </c>
       <c r="G101" t="n">
-        <v>-128351.8346079365</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3964,22 +3479,15 @@
         <v>3789.5748</v>
       </c>
       <c r="G102" t="n">
-        <v>-128351.8346079365</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4001,22 +3509,15 @@
         <v>2042.3385</v>
       </c>
       <c r="G103" t="n">
-        <v>-128351.8346079365</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4038,22 +3539,15 @@
         <v>1683.3464</v>
       </c>
       <c r="G104" t="n">
-        <v>-128351.8346079365</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4075,22 +3569,15 @@
         <v>2049.1198</v>
       </c>
       <c r="G105" t="n">
-        <v>-128351.8346079365</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4112,22 +3599,15 @@
         <v>333</v>
       </c>
       <c r="G106" t="n">
-        <v>-128351.8346079365</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4149,22 +3629,15 @@
         <v>1335.2362</v>
       </c>
       <c r="G107" t="n">
-        <v>-129687.0708079365</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4186,22 +3659,15 @@
         <v>2370.9052</v>
       </c>
       <c r="G108" t="n">
-        <v>-129687.0708079365</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4223,22 +3689,15 @@
         <v>1660.3427</v>
       </c>
       <c r="G109" t="n">
-        <v>-129687.0708079365</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4260,22 +3719,15 @@
         <v>699</v>
       </c>
       <c r="G110" t="n">
-        <v>-128988.0708079365</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4297,22 +3749,15 @@
         <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>-128978.0708079365</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4334,22 +3779,15 @@
         <v>2444.3289</v>
       </c>
       <c r="G112" t="n">
-        <v>-126533.7419079365</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4371,22 +3809,15 @@
         <v>4655.3992</v>
       </c>
       <c r="G113" t="n">
-        <v>-126533.7419079365</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4408,22 +3839,15 @@
         <v>4655.3953</v>
       </c>
       <c r="G114" t="n">
-        <v>-126533.7419079365</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4445,22 +3869,15 @@
         <v>237.6939</v>
       </c>
       <c r="G115" t="n">
-        <v>-126533.7419079365</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4482,22 +3899,15 @@
         <v>0.3061</v>
       </c>
       <c r="G116" t="n">
-        <v>-126533.7419079365</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4519,22 +3929,15 @@
         <v>3168.9846</v>
       </c>
       <c r="G117" t="n">
-        <v>-126533.7419079365</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4556,22 +3959,15 @@
         <v>5000</v>
       </c>
       <c r="G118" t="n">
-        <v>-121533.7419079365</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4593,22 +3989,15 @@
         <v>106.4289</v>
       </c>
       <c r="G119" t="n">
-        <v>-121640.1708079365</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4630,22 +4019,15 @@
         <v>38422.6232</v>
       </c>
       <c r="G120" t="n">
-        <v>-83217.54760793652</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4667,22 +4049,15 @@
         <v>2988.2248</v>
       </c>
       <c r="G121" t="n">
-        <v>-83217.54760793652</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4704,22 +4079,15 @@
         <v>9671.7948</v>
       </c>
       <c r="G122" t="n">
-        <v>-83217.54760793652</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4741,22 +4109,15 @@
         <v>1058.1241</v>
       </c>
       <c r="G123" t="n">
-        <v>-84275.67170793652</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4778,22 +4139,15 @@
         <v>4293.4624</v>
       </c>
       <c r="G124" t="n">
-        <v>-84275.67170793652</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4815,22 +4169,15 @@
         <v>422.5394</v>
       </c>
       <c r="G125" t="n">
-        <v>-84698.21110793651</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4852,22 +4199,15 @@
         <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>-84697.21110793651</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4889,22 +4229,15 @@
         <v>1269.6299</v>
       </c>
       <c r="G127" t="n">
-        <v>-85966.84100793651</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4926,22 +4259,15 @@
         <v>3780.1009</v>
       </c>
       <c r="G128" t="n">
-        <v>-89746.94190793652</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4963,22 +4289,15 @@
         <v>24014.1395</v>
       </c>
       <c r="G129" t="n">
-        <v>-89746.94190793652</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5000,22 +4319,15 @@
         <v>14408.4837</v>
       </c>
       <c r="G130" t="n">
-        <v>-104155.4256079365</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5037,22 +4349,15 @@
         <v>409.5081</v>
       </c>
       <c r="G131" t="n">
-        <v>-104155.4256079365</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5074,22 +4379,15 @@
         <v>6292.0541</v>
       </c>
       <c r="G132" t="n">
-        <v>-97863.37150793652</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5111,22 +4409,15 @@
         <v>1618.6562</v>
       </c>
       <c r="G133" t="n">
-        <v>-97863.37150793652</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5148,22 +4439,15 @@
         <v>102.9763</v>
       </c>
       <c r="G134" t="n">
-        <v>-97863.37150793652</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5185,22 +4469,15 @@
         <v>4290.8702</v>
       </c>
       <c r="G135" t="n">
-        <v>-102154.2417079365</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5222,22 +4499,15 @@
         <v>6370.0094</v>
       </c>
       <c r="G136" t="n">
-        <v>-102154.2417079365</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5259,22 +4529,15 @@
         <v>2520.0852</v>
       </c>
       <c r="G137" t="n">
-        <v>-99634.15650793652</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5296,22 +4559,15 @@
         <v>4</v>
       </c>
       <c r="G138" t="n">
-        <v>-99634.15650793652</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5333,22 +4589,15 @@
         <v>4</v>
       </c>
       <c r="G139" t="n">
-        <v>-99634.15650793652</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5370,22 +4619,15 @@
         <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>-99634.15650793652</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5407,22 +4649,15 @@
         <v>776.1937984496124</v>
       </c>
       <c r="G141" t="n">
-        <v>-99634.15650793652</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5444,22 +4679,15 @@
         <v>278.7331</v>
       </c>
       <c r="G142" t="n">
-        <v>-99912.88960793652</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5481,22 +4709,15 @@
         <v>500</v>
       </c>
       <c r="G143" t="n">
-        <v>-99412.88960793652</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5518,22 +4739,15 @@
         <v>3990</v>
       </c>
       <c r="G144" t="n">
-        <v>-103402.8896079365</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5555,22 +4769,15 @@
         <v>1130.6345</v>
       </c>
       <c r="G145" t="n">
-        <v>-102272.2551079365</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5592,22 +4799,15 @@
         <v>7773.632011550388</v>
       </c>
       <c r="G146" t="n">
-        <v>-94498.62309638613</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5629,20 +4829,15 @@
         <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>-94498.62309638613</v>
-      </c>
-      <c r="H147" t="n">
         <v>2</v>
       </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K147" t="n">
+        <v>1</v>
       </c>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5664,18 +4859,15 @@
         <v>1896.6538</v>
       </c>
       <c r="G148" t="n">
-        <v>-94498.62309638613</v>
-      </c>
-      <c r="H148" t="n">
         <v>2</v>
       </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5697,18 +4889,15 @@
         <v>1513.75039</v>
       </c>
       <c r="G149" t="n">
-        <v>-92984.87270638613</v>
-      </c>
-      <c r="H149" t="n">
         <v>2</v>
       </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5730,18 +4919,15 @@
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>-92984.87270638613</v>
-      </c>
-      <c r="H150" t="n">
         <v>2</v>
       </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5763,18 +4949,15 @@
         <v>1699.7251</v>
       </c>
       <c r="G151" t="n">
-        <v>-92984.87270638613</v>
-      </c>
-      <c r="H151" t="n">
         <v>2</v>
       </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
